--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1700" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1120" yWindow="1700" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Biomass reactions" sheetId="14" r:id="rId10"/>
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId13"/>
+    <sheet name="Database references" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1841,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1700" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="1120" yWindow="1700" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -1062,20 +1062,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="23.1640625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -1083,13 +1084,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
@@ -1097,6 +1101,9 @@
         <v>126</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1257,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1700" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="1120" yWindow="1700" windowWidth="32800" windowHeight="16160" tabRatio="500" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
     <sheet name="Database references" sheetId="12" r:id="rId13"/>
+    <sheet name="Functions" sheetId="15" r:id="rId14"/>
+    <sheet name="Observables" sheetId="16" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -1064,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1301,6 +1304,44 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1700" windowWidth="32800" windowHeight="16160" tabRatio="500" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -18,22 +18,22 @@
     <sheet name="Compartments" sheetId="2" r:id="rId4"/>
     <sheet name="Species types" sheetId="3" r:id="rId5"/>
     <sheet name="Concentrations" sheetId="10" r:id="rId6"/>
-    <sheet name="Reactions" sheetId="4" r:id="rId7"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
-    <sheet name="Biomass components" sheetId="13" r:id="rId9"/>
-    <sheet name="Biomass reactions" sheetId="14" r:id="rId10"/>
-    <sheet name="Parameters" sheetId="5" r:id="rId11"/>
-    <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Database references" sheetId="12" r:id="rId13"/>
-    <sheet name="Functions" sheetId="15" r:id="rId14"/>
-    <sheet name="Observables" sheetId="16" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="17" r:id="rId16"/>
+    <sheet name="Observables" sheetId="16" r:id="rId7"/>
+    <sheet name="Functions" sheetId="15" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="4" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="13" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="14" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="17" r:id="rId14"/>
+    <sheet name="References" sheetId="6" r:id="rId15"/>
+    <sheet name="Database references" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Max flux</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1071,244 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
@@ -1115,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1186,7 +1430,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
@@ -1263,7 +1539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1304,44 +1580,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1887,6 +2125,73 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
@@ -2028,242 +2333,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="17">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="17">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>Expression</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -1018,9 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1028,7 +1039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
@@ -1036,7 +1047,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1044,23 +1055,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1434,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,15 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -116,283 +121,283 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaCl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -881,19 +886,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -904,24 +909,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -930,13 +935,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -947,13 +952,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -964,13 +969,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
@@ -1015,13 +1020,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>13</v>
@@ -1032,74 +1037,74 @@
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="21" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="21" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>13</v>
@@ -1149,13 +1154,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>116</v>
@@ -1203,10 +1208,10 @@
         <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1275,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1332,7 +1337,7 @@
         <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>126</v>
@@ -1411,16 +1416,16 @@
         <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>138</v>
@@ -1514,16 +1519,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1546,56 +1551,48 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1648,10 +1645,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1660,15 +1657,15 @@
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1677,7 +1674,7 @@
         <v>1E-012</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1721,19 +1718,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1744,17 +1741,17 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
@@ -1763,23 +1760,23 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>2</v>
@@ -1788,23 +1785,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>3</v>
@@ -1813,23 +1810,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -1838,23 +1835,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -1863,23 +1860,23 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>6</v>
@@ -1888,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1908,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1923,13 +1920,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1940,68 +1937,68 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2042,10 +2039,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2089,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2131,19 +2128,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
@@ -2154,16 +2151,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>0</v>
@@ -2179,16 +2176,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>1</v>
@@ -2200,16 +2197,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>1</v>
@@ -2221,16 +2218,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,35 +13,41 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="141">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -244,6 +250,36 @@
     <t xml:space="preserve">U238</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -253,27 +289,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -367,9 +385,6 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_001</t>
   </si>
   <si>
@@ -395,9 +410,6 @@
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -482,7 +494,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -535,6 +547,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -595,7 +615,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -668,20 +688,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -873,10 +905,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="9" min="1" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,19 +1065,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -909,24 +1088,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -935,13 +1114,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -952,13 +1131,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -969,142 +1148,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0.001</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="18" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1123,47 +1179,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="18" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="19" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>116</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1178,6 +1298,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="23" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1205,13 +1384,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1222,10 +1401,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1234,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1280,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1297,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1325,46 +1504,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1383,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1401,10 +1580,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1413,22 +1592,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1700,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1906,10 +2085,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1920,13 +2248,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1937,68 +2265,68 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2039,10 +2367,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2059,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2086,7 +2414,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2101,151 +2429,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,35 +19,40 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -109,313 +114,310 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaCl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -688,6 +690,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,14 +716,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -925,39 +927,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>0</v>
@@ -973,16 +975,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>1</v>
@@ -994,16 +996,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>1</v>
@@ -1015,16 +1017,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0</v>
@@ -1065,47 +1067,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2000</v>
@@ -1114,13 +1116,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.0003</v>
@@ -1131,13 +1133,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0.0003</v>
@@ -1148,13 +1150,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.0003</v>
@@ -1175,6 +1177,65 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="18" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1187,162 +1248,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="19" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="20" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="21" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>20</v>
+      <c r="G1" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="22" t="n">
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="22" t="n">
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="22" t="n">
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22" t="n">
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="23" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>118</v>
+      <c r="E5" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1381,30 +1383,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1413,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1437,18 +1439,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1456,12 +1458,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1481,16 +1480,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1501,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
@@ -1513,10 +1512,10 @@
         <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>128</v>
@@ -1543,14 +1542,12 @@
         <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1580,34 +1577,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +1623,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1658,12 +1655,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1671,17 +1668,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1701,13 +1691,13 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1718,60 +1708,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1790,16 +1767,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1810,54 +1787,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1874,16 +1843,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="3" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1894,181 +1863,161 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
+      <c r="E3" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
+      <c r="E4" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>47</v>
+      <c r="G7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2087,7 +2036,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2097,8 +2046,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,104 +2058,104 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2248,85 +2197,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2345,18 +2294,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2364,15 +2313,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2392,18 +2335,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2411,12 +2354,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -168,76 +168,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -617,12 +638,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -663,14 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -679,8 +692,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,68 +791,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,30 +814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,13 +841,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +907,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,91 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,55 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +1047,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1033,6 +1069,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,35 +1097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,153 +1127,147 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,27 +1319,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1781,25 +1802,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1807,25 +1828,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1867,22 +1888,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1899,16 +1920,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
@@ -1920,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
@@ -1947,16 +1968,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -1968,16 +1989,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -2032,19 +2053,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2061,22 +2082,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2084,22 +2105,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2107,22 +2128,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2130,22 +2151,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2154,22 +2175,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2214,13 +2235,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2237,17 +2258,17 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2284,13 +2305,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2307,22 +2328,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2360,16 +2381,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -2386,85 +2407,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2504,16 +2525,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2530,106 +2551,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2669,10 +2690,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2720,28 +2741,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2790,46 +2811,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2971,7 +2992,7 @@
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="23"/>
       <c r="F2" s="13" t="s">
         <v>33</v>
       </c>
@@ -2997,31 +3018,31 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="13"/>
-    <col min="6" max="1028" width="8.78333333333333" style="20"/>
-    <col min="1029" max="16384" width="9" style="20"/>
+    <col min="1" max="8" width="8.78333333333333" style="13"/>
+    <col min="9" max="1031" width="8.78333333333333" style="20"/>
+    <col min="1032" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1027">
+    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3046,91 +3067,116 @@
         <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="20"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="20"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3169,19 +3215,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3199,14 +3245,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -3215,20 +3261,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -3237,20 +3283,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -3259,20 +3305,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="20">
         <v>4</v>
@@ -3281,20 +3327,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E6" s="20">
         <v>5</v>
@@ -3303,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -3324,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -3377,13 +3423,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3400,114 +3446,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3552,19 +3598,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3581,104 +3627,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="18">
         <v>0.000148</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="18">
         <v>0.0002</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="18">
         <v>0.0005</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="18">
         <v>0.0005</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="18">
         <v>0.001</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="18">
         <v>0.002</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3715,10 +3761,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3767,10 +3813,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -405,7 +405,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -638,12 +644,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -678,17 +684,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,24 +713,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,6 +737,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -749,42 +753,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +774,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -814,7 +797,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,13 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,13 +853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,13 +883,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,25 +913,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,55 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,37 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,15 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1058,6 +1055,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,37 +1089,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,139 +1117,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,17 +1325,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,7 +1874,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2212,14 +2218,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2227,7 +2233,7 @@
     <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2244,31 +2250,43 @@
         <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2328,10 +2346,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2343,7 +2361,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2381,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>89</v>
@@ -2407,13 +2425,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>97</v>
@@ -2425,18 +2443,18 @@
         <v>120</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>93</v>
@@ -2450,13 +2468,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -2470,13 +2488,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>94</v>
@@ -2528,10 +2546,10 @@
         <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>89</v>
@@ -2551,10 +2569,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>134</v>
@@ -2563,46 +2581,46 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
@@ -2613,38 +2631,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2741,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>89</v>
@@ -2750,19 +2768,19 @@
         <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2811,46 +2829,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3020,7 +3038,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="201">
   <si>
     <t>Id</t>
   </si>
@@ -180,448 +180,469 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Na5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>dFBA net species</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>Na5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>dFBA net species</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -644,12 +665,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -678,9 +699,46 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -692,14 +750,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,9 +772,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,29 +801,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -766,14 +816,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -782,37 +824,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,6 +835,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,13 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +874,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +946,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,37 +994,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,67 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,17 +1065,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,50 +1085,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,139 +1112,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,17 +1346,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,22 +1915,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1926,16 +1947,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
@@ -1947,22 +1968,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
@@ -1974,16 +1995,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -1995,16 +2016,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -2034,7 +2055,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2044,7 +2065,7 @@
     <col min="3" max="3" width="26.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
-    <col min="6" max="6" width="37.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
     <col min="7" max="9" width="9.25" style="2"/>
     <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
     <col min="11" max="1025" width="8.78333333333333" style="2"/>
@@ -2059,19 +2080,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2088,22 +2109,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2111,22 +2132,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2134,22 +2155,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2157,22 +2178,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2181,22 +2202,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2220,7 +2241,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2241,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2270,20 +2291,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2323,13 +2344,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2346,22 +2367,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2399,16 +2420,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -2425,85 +2446,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2516,17 +2537,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
@@ -2543,16 +2564,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2569,106 +2590,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2708,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2759,28 +2822,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2829,46 +2892,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3036,24 +3099,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333" style="13"/>
-    <col min="9" max="1031" width="8.78333333333333" style="20"/>
-    <col min="1032" max="16384" width="9" style="20"/>
+    <col min="9" max="1030" width="8.78333333333333" style="20"/>
+    <col min="1031" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1030">
+    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1029">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3091,46 +3154,43 @@
         <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="20"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="20"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3139,40 +3199,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3181,16 +3238,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3233,19 +3287,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3263,14 +3317,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -3279,20 +3333,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -3301,20 +3355,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -3323,20 +3377,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="20">
         <v>4</v>
@@ -3345,20 +3399,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="20">
         <v>5</v>
@@ -3367,19 +3421,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="D7" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -3388,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -3441,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3464,114 +3518,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3616,19 +3670,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3645,104 +3699,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="18">
         <v>0.000148</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="18">
         <v>0.0002</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="18">
         <v>0.0005</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="18">
         <v>0.0005</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="18">
         <v>0.001</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="18">
         <v>0.002</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3779,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3807,19 +3861,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1" max="2" width="8.78333333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3831,10 +3887,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3847,6 +3903,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -408,6 +408,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -426,6 +429,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -472,9 +478,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -665,12 +668,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -699,16 +702,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,9 +722,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -741,6 +745,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -749,6 +806,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -763,16 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,67 +845,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,7 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +877,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +913,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,73 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,11 +1068,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,15 +1094,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,10 +1115,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1126,9 +1124,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,153 +1148,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,17 +1349,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,26 +1891,26 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="46.75" style="2" customWidth="1"/>
-    <col min="5" max="9" width="8.78333333333333" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="10" width="8.78333333333333" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1933,107 +1936,122 @@
         <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2080,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>66</v>
@@ -2109,22 +2127,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2132,22 +2150,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2155,22 +2173,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2178,22 +2196,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2202,22 +2220,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2271,10 +2289,10 @@
         <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2291,20 +2309,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2350,7 +2368,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2367,22 +2385,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2420,13 +2438,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>88</v>
@@ -2446,13 +2464,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>96</v>
@@ -2461,21 +2479,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>92</v>
@@ -2484,18 +2502,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>97</v>
@@ -2504,18 +2522,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>93</v>
@@ -2524,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2567,10 +2585,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>88</v>
@@ -2590,100 +2608,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2697,13 +2715,13 @@
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2711,31 +2729,31 @@
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2822,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>88</v>
@@ -2831,19 +2849,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2892,46 +2910,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3863,7 +3881,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -668,12 +668,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -702,17 +702,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -731,7 +731,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,18 +761,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,8 +776,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,9 +793,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,25 +822,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,23 +842,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,12 +865,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -883,7 +877,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,37 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +997,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,91 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,21 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1124,11 +1109,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1131,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1159,145 +1157,147 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,17 +1349,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3119,18 +3119,20 @@
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333" style="13"/>
-    <col min="9" max="1030" width="8.78333333333333" style="20"/>
+    <col min="9" max="9" width="8.78333333333333" style="20"/>
+    <col min="10" max="10" width="9.375" style="20"/>
+    <col min="11" max="1030" width="8.78333333333333" style="20"/>
     <col min="1031" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -3249,11 +3251,11 @@
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
+      <c r="I3" s="6">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,57 +5,58 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -123,7 +124,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -141,6 +142,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -619,9 +635,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -668,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -710,28 +723,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,11 +738,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,23 +818,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +828,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,43 +858,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,13 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +944,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,13 +1016,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,85 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,21 +1078,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1116,17 +1114,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,11 +1138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,143 +1163,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1349,23 +1362,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1832,25 +1848,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1858,25 +1874,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1889,6 +1905,82 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.78333333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
@@ -1918,31 +2010,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1953,22 +2045,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" s="15">
         <v>0</v>
@@ -1977,28 +2069,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2007,22 +2099,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2031,22 +2123,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -2063,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2098,25 +2190,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2127,22 +2219,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2150,22 +2242,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2173,22 +2265,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2196,22 +2288,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2220,22 +2312,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2254,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2280,25 +2372,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2309,20 +2401,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2334,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2362,19 +2454,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2385,22 +2477,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J5"/>
@@ -2438,22 +2530,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2464,85 +2556,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2582,22 +2674,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2608,148 +2700,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2762,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2789,16 +2881,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2814,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2840,34 +2932,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2882,7 +2974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2910,46 +3002,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2977,7 +3069,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3036,6 +3128,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="2"/>
+    <col min="1016" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3063,13 +3232,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3083,28 +3252,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="23"/>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3114,12 +3283,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3144,40 +3313,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3189,28 +3358,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3219,37 +3388,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3258,13 +3427,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ12"/>
@@ -3307,25 +3476,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3337,14 +3506,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -3353,20 +3522,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -3375,20 +3544,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -3397,20 +3566,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="20">
         <v>4</v>
@@ -3419,20 +3588,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" s="20">
         <v>5</v>
@@ -3441,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -3462,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -3487,7 +3656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3515,19 +3684,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3538,114 +3707,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3690,25 +3859,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3719,104 +3888,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="18">
         <v>0.000148</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="18">
         <v>0.0002</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="18">
         <v>0.0005</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="18">
         <v>0.0005</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="18">
         <v>0.001</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="18">
         <v>0.002</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3853,98 +4022,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -547,7 +547,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -681,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -715,9 +715,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,9 +734,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,13 +756,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,23 +804,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,32 +818,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,6 +836,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,14 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,7 +878,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,19 +980,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,85 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,61 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1081,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1096,29 +1114,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,21 +1140,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,139 +1169,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,17 +1362,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2507,12 +2507,12 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -3132,7 +3132,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="J7" sqref="J7"/>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="207">
   <si>
     <t>Id</t>
   </si>
@@ -157,6 +157,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -533,9 +539,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -681,12 +684,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -721,13 +724,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -743,14 +739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +753,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,14 +770,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -797,9 +777,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,9 +806,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,7 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,13 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -856,8 +850,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,25 +881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +935,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,73 +1037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,43 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,15 +1093,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1110,6 +1104,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,17 +1147,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,144 +1181,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1933,16 +1936,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1953,24 +1956,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2010,31 +2013,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2045,22 +2048,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" s="15">
         <v>0</v>
@@ -2069,28 +2072,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2099,22 +2102,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2123,22 +2126,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -2190,25 +2193,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2219,22 +2222,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2242,22 +2245,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2265,22 +2268,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2288,22 +2291,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2312,22 +2315,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2372,25 +2375,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2401,20 +2404,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2454,19 +2457,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2477,22 +2480,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2510,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2530,22 +2533,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2556,85 +2559,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2677,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2700,148 +2703,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2881,16 +2884,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2932,34 +2935,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3002,46 +3005,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3130,15 +3133,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3183,18 +3186,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3232,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3252,28 +3263,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="23"/>
       <c r="F2" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3313,40 +3324,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3358,28 +3369,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3388,37 +3399,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3427,13 +3438,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3476,25 +3487,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3506,14 +3517,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -3522,20 +3533,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -3544,20 +3555,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -3566,20 +3577,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="20">
         <v>4</v>
@@ -3588,20 +3599,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="20">
         <v>5</v>
@@ -3610,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="20">
         <v>6</v>
@@ -3631,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -3684,19 +3695,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3707,114 +3718,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3859,25 +3870,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3888,104 +3899,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18">
         <v>0.000148</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="18">
         <v>0.0002</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="18">
         <v>0.0005</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="18">
         <v>0.0005</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="18">
         <v>0.001</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="18">
         <v>0.002</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4022,16 +4033,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,16 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Evidence" sheetId="22" r:id="rId18"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -47,16 +48,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +170,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -637,10 +641,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -685,11 +704,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -718,6 +737,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -725,6 +752,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +774,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -746,7 +795,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -754,7 +803,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,64 +871,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -835,34 +878,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -887,6 +906,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -899,13 +984,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,31 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,115 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1100,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1166,158 +1200,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1332,6 +1351,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1851,25 +1873,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1877,25 +1899,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1910,25 +1932,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="2"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="4" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1936,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1948,32 +1970,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1986,14 +2011,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2001,11 +2026,11 @@
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="46.75" style="2" customWidth="1"/>
     <col min="5" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="11" max="1027" width="8.78333333333333" style="3"/>
+    <col min="1028" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2013,25 +2038,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2040,113 +2065,116 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="15">
+        <v>131</v>
+      </c>
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="15">
+        <v>136</v>
+      </c>
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="15">
+        <v>139</v>
+      </c>
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="15">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2161,14 +2189,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2179,13 +2207,13 @@
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
     <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.25" style="2"/>
-    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
-    <col min="11" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="10" width="9.25" style="2"/>
+    <col min="11" max="11" width="14.375" style="2" customWidth="1"/>
+    <col min="12" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2193,19 +2221,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2214,133 +2242,142 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="K5"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="8:10">
+      <c r="K6"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2352,22 +2389,22 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="12"/>
+    <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2375,19 +2412,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2396,28 +2433,31 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>160</v>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2432,24 +2472,24 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="7"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="8.78333333333333" style="8"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2457,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2472,30 +2512,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>162</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>132</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2508,136 +2551,139 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="7" width="15.5333333333333" style="7"/>
-    <col min="8" max="1025" width="8.78333333333333" style="8"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="1" max="7" width="15.5333333333333" style="8"/>
+    <col min="8" max="1026" width="8.78333333333333" style="9"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>160</v>
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="11">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12">
         <v>-3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>168</v>
+      <c r="F2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>160</v>
+      <c r="B3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
         <v>-4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>132</v>
+      <c r="F3" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>160</v>
+      <c r="B4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="11">
+        <v>105</v>
+      </c>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>132</v>
+      <c r="F4" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="B5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>132</v>
+      <c r="F5" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2650,26 +2696,26 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
-    <col min="5" max="8" width="8.78333333333333" style="2"/>
-    <col min="9" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="9" width="8.78333333333333" style="2"/>
+    <col min="10" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2677,16 +2723,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2695,21 +2741,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2717,134 +2766,134 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>178</v>
+      <c r="J2" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="6">
+        <v>181</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>131</v>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="6">
+        <v>181</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="6">
+        <v>181</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="6">
+        <v>188</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6">
+        <v>147</v>
+      </c>
+      <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2860,23 +2909,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2884,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2896,9 +2945,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2912,14 +2964,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2927,7 +2979,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2935,16 +2987,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>192</v>
@@ -2953,21 +3005,45 @@
         <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2980,87 +3056,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AMJ1" s="3"/>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3130,12 +3217,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="17" width="8.78333333333333" style="2"/>
+    <col min="18" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
@@ -3146,7 +3320,7 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="2"/>
-    <col min="1016" max="16384" width="9" style="24"/>
+    <col min="1016" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3218,24 +3392,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="13"/>
-    <col min="7" max="1025" width="8.78333333333333" style="20"/>
-    <col min="1026" max="16384" width="9" style="20"/>
+    <col min="1" max="7" width="8.78333333333333" style="14"/>
+    <col min="8" max="1026" width="8.78333333333333" style="21"/>
+    <col min="1027" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="15" customHeight="1" spans="1:1024">
+    <row r="1" s="20" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3252,39 +3426,42 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="20"/>
-      <c r="AMI1" s="20"/>
-      <c r="AMJ1" s="20"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="AMI1" s="21"/>
+      <c r="AMJ1" s="21"/>
+      <c r="AMK1" s="21"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
+      <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="D2" s="24"/>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3297,61 +3474,61 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="8" width="8.78333333333333" style="13"/>
-    <col min="9" max="9" width="8.78333333333333" style="20"/>
-    <col min="10" max="10" width="9.375" style="20"/>
-    <col min="11" max="1030" width="8.78333333333333" style="20"/>
-    <col min="1031" max="16384" width="9" style="20"/>
+    <col min="1" max="8" width="8.78333333333333" style="14"/>
+    <col min="9" max="9" width="8.78333333333333" style="21"/>
+    <col min="10" max="10" width="9.375" style="21"/>
+    <col min="11" max="1031" width="8.78333333333333" style="21"/>
+    <col min="1032" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3360,91 +3537,94 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="20"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
-      <c r="A2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="AMP1" s="21"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="6">
+        <v>62</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="13" t="s">
+      <c r="P2" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6">
+        <v>62</v>
+      </c>
+      <c r="I3" s="7">
         <v>1e-12</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="13" t="s">
         <v>68</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3460,26 +3640,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="13"/>
-    <col min="4" max="4" width="16.125" style="13" customWidth="1"/>
-    <col min="5" max="9" width="8.78333333333333" style="13"/>
-    <col min="10" max="1025" width="8.78333333333333" style="20"/>
-    <col min="1026" max="16384" width="9" style="20"/>
+    <col min="1" max="3" width="8.78333333333333" style="14"/>
+    <col min="4" max="4" width="16.125" style="14" customWidth="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="14"/>
+    <col min="11" max="1026" width="8.78333333333333" style="21"/>
+    <col min="1027" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3487,19 +3667,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3508,141 +3688,144 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="20"/>
+      <c r="AMK1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="13">
+      <c r="C2" s="21"/>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="13">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="G4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="G5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="20">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="G6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="21">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="20">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>77</v>
+      <c r="G7" s="22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -3655,7 +3838,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="8:8">
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -3670,24 +3853,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3695,13 +3878,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3710,122 +3893,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3841,14 +4027,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -3858,11 +4044,11 @@
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.78333333333333" style="2"/>
     <col min="5" max="5" width="9.75" style="2"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3870,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3891,112 +4077,115 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="18">
+        <v>62</v>
+      </c>
+      <c r="E2" s="19">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>110</v>
+      <c r="G2" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="18">
+        <v>62</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>110</v>
+      <c r="G4" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="18">
+        <v>62</v>
+      </c>
+      <c r="E5" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>110</v>
+      <c r="G5" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="18">
+        <v>62</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.001</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>110</v>
+      <c r="G6" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="18">
+        <v>62</v>
+      </c>
+      <c r="E7" s="19">
         <v>0.002</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>110</v>
+      <c r="G7" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4009,23 +4198,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4033,10 +4222,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -4044,10 +4233,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -164,7 +164,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -179,7 +179,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>For testing</t>
@@ -191,7 +191,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -230,13 +230,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -245,7 +245,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -260,7 +260,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -704,11 +701,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -750,8 +747,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,6 +758,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,14 +779,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +793,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -803,59 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,10 +824,61 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -900,13 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +939,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,19 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,61 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,31 +1053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,6 +1139,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1166,21 +1189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1189,146 +1197,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2196,7 +2193,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2261,11 +2258,8 @@
       <c r="D2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>132</v>
@@ -2277,7 +2271,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>134</v>
@@ -2285,11 +2279,8 @@
       <c r="D3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>132</v>
@@ -2301,7 +2292,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>137</v>
@@ -2309,11 +2300,8 @@
       <c r="D4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>132</v>
@@ -2325,19 +2313,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>132</v>
@@ -2350,7 +2335,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>140</v>
@@ -2358,11 +2343,8 @@
       <c r="D6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>132</v>
@@ -2421,10 +2403,10 @@
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2444,14 +2426,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2503,7 +2485,7 @@
         <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2523,10 +2505,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2538,7 +2520,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2576,13 +2558,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>96</v>
@@ -2605,13 +2587,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>104</v>
@@ -2623,18 +2605,18 @@
         <v>133</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>100</v>
@@ -2648,13 +2630,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>105</v>
@@ -2668,13 +2650,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>101</v>
@@ -2703,7 +2685,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2726,10 +2708,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
@@ -2752,13 +2734,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2767,43 +2746,43 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
@@ -2814,38 +2793,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2858,42 +2837,33 @@
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2881,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2987,10 +2957,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>96</v>
@@ -2999,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3017,22 +2987,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3082,10 +3052,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>96</v>
@@ -3094,7 +3064,7 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3227,7 +3197,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3245,46 +3215,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3394,12 +3364,12 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3445,7 +3415,7 @@
       <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="24"/>
@@ -3460,7 +3430,7 @@
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3481,7 +3451,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3647,7 +3617,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3715,7 +3685,7 @@
       <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="22"/>
@@ -3737,7 +3707,7 @@
       <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="22"/>
@@ -3759,7 +3729,7 @@
       <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="22"/>
@@ -3781,7 +3751,7 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="22"/>
@@ -3803,7 +3773,7 @@
       <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="22"/>
@@ -3824,7 +3794,7 @@
       <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4034,7 +4004,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -701,11 +701,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -747,9 +747,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,21 +759,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,29 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -832,9 +793,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,14 +824,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,8 +867,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +897,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +981,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,145 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,22 +1119,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,8 +1162,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,143 +1183,149 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3279,10 +3279,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3364,7 +3364,7 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -652,6 +652,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -718,6 +721,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -731,9 +737,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -744,11 +747,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -778,9 +781,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -790,9 +803,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,9 +871,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,62 +887,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,9 +900,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,14 +916,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,7 +944,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,13 +1004,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,25 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,61 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,61 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,30 +1152,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,6 +1188,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1218,11 +1208,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,140 +1247,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1388,9 +1391,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1431,17 +1431,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,15 +1853,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1925,25 +1925,25 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1970,10 +1970,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="4"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2006,24 +2006,24 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2049,11 +2049,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="4"/>
-    <col min="4" max="4" width="46.75" style="4" customWidth="1"/>
-    <col min="5" max="10" width="8.78333333333333" style="4"/>
-    <col min="11" max="1027" width="8.78333333333333" style="5"/>
-    <col min="1028" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="46.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="1"/>
+    <col min="11" max="1027" width="8.78333333333333" style="4"/>
+    <col min="1028" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:14">
@@ -2101,106 +2101,106 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2227,16 +2227,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="4"/>
-    <col min="3" max="3" width="26.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="4"/>
-    <col min="5" max="5" width="8.78333333333333" style="4"/>
-    <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="9.25" style="4"/>
-    <col min="11" max="11" width="14.375" style="4" customWidth="1"/>
-    <col min="12" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.25" style="1"/>
+    <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="12" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2278,19 +2278,19 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H2"/>
@@ -2299,19 +2299,19 @@
       <c r="K2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H3"/>
@@ -2320,19 +2320,19 @@
       <c r="K3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H4"/>
@@ -2341,48 +2341,48 @@
       <c r="K4"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
@@ -2412,7 +2412,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="14"/>
+    <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2454,23 +2454,23 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2495,9 +2495,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="9"/>
-    <col min="6" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="5" width="8.78333333333333" style="8"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2533,22 +2533,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2574,31 +2574,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="7" width="15.5333333333333" style="9"/>
-    <col min="8" max="1026" width="8.78333333333333" style="10"/>
-    <col min="1027" max="16384" width="9" style="11"/>
+    <col min="1" max="7" width="15.5333333333333" style="8"/>
+    <col min="8" max="1026" width="8.78333333333333" style="9"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2607,93 +2607,93 @@
       <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2719,11 +2719,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="4"/>
-    <col min="4" max="4" width="9.25" style="4"/>
-    <col min="5" max="9" width="8.78333333333333" style="4"/>
-    <col min="10" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="9" width="8.78333333333333" style="1"/>
+    <col min="10" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
@@ -2762,136 +2762,136 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.001</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>1100</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>1000</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2920,8 +2920,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2975,74 +2975,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3055,90 +3055,93 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="4"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3163,15 +3166,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3179,7 +3182,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3187,7 +3190,7 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3200,7 +3203,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3231,9 +3234,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="4"/>
-    <col min="18" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="17" width="8.78333333333333" style="1"/>
+    <col min="18" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
@@ -3244,46 +3247,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3291,7 +3294,7 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="AMJ1" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -3329,31 +3332,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3371,14 +3374,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3386,7 +3389,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3397,43 +3400,46 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3455,17 +3461,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="4"/>
-    <col min="1016" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3478,7 +3484,7 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
@@ -3486,7 +3492,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3494,7 +3500,7 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
@@ -3502,7 +3508,7 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3542,12 +3548,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="15"/>
-    <col min="8" max="1026" width="8.78333333333333" style="22"/>
-    <col min="1027" max="16384" width="9" style="22"/>
+    <col min="1" max="7" width="8.78333333333333" style="14"/>
+    <col min="8" max="1026" width="8.78333333333333" style="21"/>
+    <col min="1027" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="15" customHeight="1" spans="1:1025">
+    <row r="1" s="20" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3572,33 +3578,33 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMI1" s="22"/>
-      <c r="AMJ1" s="22"/>
-      <c r="AMK1" s="22"/>
+      <c r="AMI1" s="21"/>
+      <c r="AMJ1" s="21"/>
+      <c r="AMK1" s="21"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="24"/>
+      <c r="G2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3624,21 +3630,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="8" width="8.78333333333333" style="15"/>
-    <col min="9" max="9" width="8.78333333333333" style="22"/>
-    <col min="10" max="10" width="9.375" style="22"/>
-    <col min="11" max="1031" width="8.78333333333333" style="22"/>
-    <col min="1032" max="16384" width="9" style="22"/>
+    <col min="1" max="8" width="8.78333333333333" style="14"/>
+    <col min="9" max="9" width="8.78333333333333" style="21"/>
+    <col min="10" max="10" width="9.375" style="21"/>
+    <col min="11" max="1031" width="8.78333333333333" style="21"/>
+    <col min="1032" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3683,85 +3689,85 @@
       <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMP1" s="22"/>
+      <c r="AMP1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1e-12</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>1e-13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3790,14 +3796,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="15"/>
-    <col min="4" max="4" width="16.125" style="15" customWidth="1"/>
-    <col min="5" max="10" width="8.78333333333333" style="15"/>
-    <col min="11" max="1026" width="8.78333333333333" style="22"/>
-    <col min="1027" max="16384" width="9" style="22"/>
+    <col min="1" max="3" width="8.78333333333333" style="14"/>
+    <col min="4" max="4" width="16.125" style="14" customWidth="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="14"/>
+    <col min="11" max="1026" width="8.78333333333333" style="21"/>
+    <col min="1027" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3834,149 +3840,149 @@
       <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMK1" s="22"/>
+      <c r="AMK1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>6</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="4"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="4"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="4"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="8:8">
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -4003,9 +4009,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="4"/>
-    <col min="7" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="6" width="15.5333333333333" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -4041,114 +4047,114 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4177,13 +4183,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="4"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.78333333333333" style="4"/>
-    <col min="5" max="5" width="9.75" style="4"/>
-    <col min="6" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.78333333333333" style="1"/>
+    <col min="5" max="5" width="9.75" style="1"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -4225,104 +4231,104 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>0.001</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0.002</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4348,24 +4354,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4374,7 +4380,7 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -183,7 +183,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -768,9 +768,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -800,11 +797,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="26">
@@ -867,8 +864,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,9 +887,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,15 +917,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,7 +948,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,14 +956,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,22 +986,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,7 +1013,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,163 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1220,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,22 +1244,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,30 +1275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1316,135 +1289,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2712,12 +2709,12 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:L2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3705,14 +3702,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3720,7 +3717,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3752,12 +3749,9 @@
         <v>234</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3796,25 +3790,25 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3835,7 +3829,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
   <si>
     <t>Table</t>
   </si>
@@ -222,15 +222,6 @@
     <t>degC</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -258,6 +249,9 @@
     <t>Initial volume</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Biological type</t>
   </si>
   <si>
@@ -273,19 +267,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Distribution</t>
+    <t>Volume distribution</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Volume mean</t>
   </si>
   <si>
-    <t>Standard deviation</t>
+    <t>Volume standard deviation</t>
   </si>
   <si>
-    <t>Units</t>
+    <t>Volume units</t>
   </si>
   <si>
     <t>Initial density</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>c</t>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>density_c</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -411,6 +411,9 @@
     <t>Compartment</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>specie_1[e]</t>
   </si>
   <si>
@@ -436,6 +439,15 @@
   </si>
   <si>
     <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
@@ -851,37 +863,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +884,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,6 +915,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -924,8 +981,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,54 +997,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,61 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1049,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,103 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1237,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1240,11 +1276,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,186 +1319,145 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2213,10 +2225,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>40</v>
@@ -2270,10 +2282,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2293,24 +2305,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2362,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2368,25 +2380,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2406,22 +2418,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E3" s="20">
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2430,28 +2442,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -2460,22 +2472,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2484,22 +2496,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" s="20">
         <v>0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2554,19 +2566,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2607,19 +2619,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2628,19 +2640,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2649,19 +2661,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2671,19 +2683,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2727,7 +2739,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="1"/>
@@ -2746,19 +2758,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2778,20 +2790,20 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2834,13 +2846,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2860,22 +2872,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2913,16 +2925,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>40</v>
@@ -2942,85 +2954,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="13">
         <v>-3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="13">
         <v>-4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3063,13 +3075,13 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3089,114 +3101,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D4" s="8">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D5" s="8">
         <v>0.0003</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D8" s="8">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3207,18 +3219,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3258,10 +3270,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3306,7 +3318,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:14">
       <c r="G1" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
@@ -3326,13 +3338,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>94</v>
@@ -3341,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3350,28 +3362,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>40</v>
@@ -3540,19 +3552,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>40</v>
@@ -3640,46 +3652,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3704,7 +3716,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3725,28 +3737,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3790,25 +3802,25 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3829,7 +3841,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3907,15 +3919,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -3952,34 +3964,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4017,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>40</v>
@@ -4040,28 +4036,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="27"/>
       <c r="G2" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4076,12 +4072,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -4089,8 +4085,8 @@
     <col min="1" max="8" width="8.78333333333333" style="16"/>
     <col min="9" max="9" width="8.78333333333333" style="24"/>
     <col min="10" max="10" width="9.375" style="24"/>
-    <col min="11" max="1031" width="8.78333333333333" style="24"/>
-    <col min="1032" max="16384" width="9" style="24"/>
+    <col min="11" max="1033" width="8.78333333333333" style="24"/>
+    <col min="1034" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
@@ -4102,14 +4098,16 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="M1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="15"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
@@ -5124,8 +5122,8 @@
       <c r="AML1" s="17"/>
       <c r="AMM1" s="17"/>
       <c r="AMN1" s="17"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="17"/>
+      <c r="AMP1" s="17"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20489,52 +20487,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -35890,30 +35892,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I3" s="8">
         <v>4.58e-17</v>
@@ -35922,18 +35924,24 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>86</v>
@@ -35942,17 +35950,17 @@
         <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I4" s="8">
         <v>1e-12</v>
@@ -35961,12 +35969,18 @@
         <v>1e-13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="M4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -35974,8 +35988,9 @@
   <autoFilter ref="A2:G4">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -36230,7 +36245,7 @@
         <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -36250,114 +36265,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -36405,16 +36420,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36434,104 +36449,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="23">
         <v>0.000148</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="23">
         <v>0.0002</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="23">
         <v>0.0005</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="23">
         <v>0.0005</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="23">
         <v>0.001</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="23">
         <v>0.002</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -267,22 +267,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Volume distribution</t>
+    <t>Distribution</t>
   </si>
   <si>
-    <t>Volume mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Volume standard deviation</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>Volume units</t>
+    <t>Units</t>
   </si>
   <si>
     <t>Initial density</t>
   </si>
   <si>
-    <t>pH units</t>
+    <t>Value</t>
   </si>
   <si>
     <t>c</t>
@@ -411,9 +411,6 @@
     <t>Compartment</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>specie_1[e]</t>
   </si>
   <si>
@@ -439,15 +436,6 @@
   </si>
   <si>
     <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
@@ -591,9 +579,6 @@
     <t>k_cat_4_for * specie_2[c]</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -696,7 +681,16 @@
     <t>Genotype</t>
   </si>
   <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -709,12 +703,6 @@
   </si>
   <si>
     <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
   </si>
   <si>
     <t>Method</t>
@@ -809,12 +797,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -863,14 +851,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +887,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,6 +903,36 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -906,45 +947,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,24 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,15 +979,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,13 +1013,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,37 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,31 +1109,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,13 +1139,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,67 +1175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,15 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1248,15 +1227,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,10 +1263,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1319,6 +1287,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1328,140 +1316,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1480,6 +1468,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1524,14 +1515,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,216 +1942,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7083333333333" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7083333333333" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="31" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
         <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33">
         <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
         <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
         <v>167</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33">
         <v>95</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33">
         <v>21</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2225,10 +2216,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>40</v>
@@ -2282,10 +2273,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2305,10 +2296,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>82</v>
@@ -2316,10 +2307,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>
@@ -2355,22 +2346,22 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2380,25 +2371,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2418,105 +2409,105 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="20">
+        <v>146</v>
+      </c>
+      <c r="E3" s="21">
         <v>0</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="20">
+        <v>151</v>
+      </c>
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="F4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="20">
+        <v>154</v>
+      </c>
+      <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D6">
@@ -2566,19 +2557,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2598,19 +2589,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2619,19 +2610,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2640,19 +2631,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2661,47 +2652,47 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>152</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
@@ -2731,17 +2722,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="14"/>
+    <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="16"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2758,19 +2749,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2790,20 +2781,20 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>180</v>
+      <c r="D3" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2833,7 +2824,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="9"/>
+    <col min="1" max="5" width="8.78333333333333" style="10"/>
     <col min="6" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="1"/>
   </cols>
@@ -2846,13 +2837,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2871,23 +2862,23 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>182</v>
+      <c r="A2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>183</v>
+      <c r="I2" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2912,31 +2903,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="7" width="15.5333333333333" style="9"/>
-    <col min="8" max="1026" width="8.78333333333333" style="10"/>
-    <col min="1027" max="16384" width="9" style="11"/>
+    <col min="1" max="7" width="15.5333333333333" style="10"/>
+    <col min="8" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1027" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2945,94 +2936,94 @@
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="13">
+        <v>123</v>
+      </c>
+      <c r="E2" s="14">
         <v>-3</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>187</v>
+      <c r="F2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>180</v>
+      <c r="A3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="13">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14">
         <v>-4</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>152</v>
+      <c r="F3" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>180</v>
+      <c r="A4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="13">
+        <v>124</v>
+      </c>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>152</v>
+      <c r="F4" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="A5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>152</v>
+      <c r="F5" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3075,13 +3066,13 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3101,10 +3092,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3113,91 +3104,91 @@
         <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="8">
+        <v>194</v>
+      </c>
+      <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="8">
+        <v>194</v>
+      </c>
+      <c r="D5" s="9">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>151</v>
+      <c r="F5" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="8">
+        <v>194</v>
+      </c>
+      <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="8">
+        <v>194</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="8">
+        <v>201</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3208,7 +3199,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3219,18 +3210,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="8">
+        <v>203</v>
+      </c>
+      <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3270,10 +3261,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3301,14 +3292,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3316,21 +3307,29 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="7:14">
-      <c r="G1" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+    <row r="1" customHeight="1" spans="7:20">
+      <c r="G1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:22">
+    <row r="2" customHeight="1" spans="1:24">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3338,13 +3337,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>94</v>
@@ -3353,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3365,43 +3364,51 @@
         <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3485,7 +3492,7 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3493,25 +3500,25 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3526,65 +3533,70 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="1"/>
-    <col min="1023" max="1023" width="9.10833333333333"/>
+    <col min="3" max="1023" width="9.10833333333333" style="1"/>
+    <col min="1024" max="1024" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="7:8">
+      <c r="G1" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
       <c r="C3" s="6"/>
@@ -3614,7 +3626,14 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
+    <row r="10" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3652,46 +3671,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3737,28 +3756,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3802,25 +3821,25 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3841,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3951,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="28"/>
+    <col min="1016" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -4000,12 +4019,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="16"/>
-    <col min="8" max="1026" width="8.78333333333333" style="24"/>
-    <col min="1027" max="16384" width="9" style="24"/>
+    <col min="1" max="7" width="8.78333333333333" style="17"/>
+    <col min="8" max="1026" width="8.78333333333333" style="25"/>
+    <col min="1027" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15" customHeight="1" spans="1:1025">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4030,30 +4049,30 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMI1" s="24"/>
-      <c r="AMJ1" s="24"/>
-      <c r="AMK1" s="24"/>
+      <c r="AMI1" s="25"/>
+      <c r="AMJ1" s="25"/>
+      <c r="AMK1" s="25"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="28"/>
+      <c r="G2" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4072,1058 +4091,1058 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="8" width="8.78333333333333" style="16"/>
-    <col min="9" max="9" width="8.78333333333333" style="24"/>
-    <col min="10" max="10" width="9.375" style="24"/>
-    <col min="11" max="1033" width="8.78333333333333" style="24"/>
-    <col min="1034" max="16384" width="9" style="24"/>
+    <col min="1" max="8" width="8.78333333333333" style="17"/>
+    <col min="9" max="9" width="8.78333333333333" style="25"/>
+    <col min="10" max="10" width="9.375" style="25"/>
+    <col min="11" max="1033" width="8.78333333333333" style="25"/>
+    <col min="1034" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-      <c r="DH1" s="17"/>
-      <c r="DI1" s="17"/>
-      <c r="DJ1" s="17"/>
-      <c r="DK1" s="17"/>
-      <c r="DL1" s="17"/>
-      <c r="DM1" s="17"/>
-      <c r="DN1" s="17"/>
-      <c r="DO1" s="17"/>
-      <c r="DP1" s="17"/>
-      <c r="DQ1" s="17"/>
-      <c r="DR1" s="17"/>
-      <c r="DS1" s="17"/>
-      <c r="DT1" s="17"/>
-      <c r="DU1" s="17"/>
-      <c r="DV1" s="17"/>
-      <c r="DW1" s="17"/>
-      <c r="DX1" s="17"/>
-      <c r="DY1" s="17"/>
-      <c r="DZ1" s="17"/>
-      <c r="EA1" s="17"/>
-      <c r="EB1" s="17"/>
-      <c r="EC1" s="17"/>
-      <c r="ED1" s="17"/>
-      <c r="EE1" s="17"/>
-      <c r="EF1" s="17"/>
-      <c r="EG1" s="17"/>
-      <c r="EH1" s="17"/>
-      <c r="EI1" s="17"/>
-      <c r="EJ1" s="17"/>
-      <c r="EK1" s="17"/>
-      <c r="EL1" s="17"/>
-      <c r="EM1" s="17"/>
-      <c r="EN1" s="17"/>
-      <c r="EO1" s="17"/>
-      <c r="EP1" s="17"/>
-      <c r="EQ1" s="17"/>
-      <c r="ER1" s="17"/>
-      <c r="ES1" s="17"/>
-      <c r="ET1" s="17"/>
-      <c r="EU1" s="17"/>
-      <c r="EV1" s="17"/>
-      <c r="EW1" s="17"/>
-      <c r="EX1" s="17"/>
-      <c r="EY1" s="17"/>
-      <c r="EZ1" s="17"/>
-      <c r="FA1" s="17"/>
-      <c r="FB1" s="17"/>
-      <c r="FC1" s="17"/>
-      <c r="FD1" s="17"/>
-      <c r="FE1" s="17"/>
-      <c r="FF1" s="17"/>
-      <c r="FG1" s="17"/>
-      <c r="FH1" s="17"/>
-      <c r="FI1" s="17"/>
-      <c r="FJ1" s="17"/>
-      <c r="FK1" s="17"/>
-      <c r="FL1" s="17"/>
-      <c r="FM1" s="17"/>
-      <c r="FN1" s="17"/>
-      <c r="FO1" s="17"/>
-      <c r="FP1" s="17"/>
-      <c r="FQ1" s="17"/>
-      <c r="FR1" s="17"/>
-      <c r="FS1" s="17"/>
-      <c r="FT1" s="17"/>
-      <c r="FU1" s="17"/>
-      <c r="FV1" s="17"/>
-      <c r="FW1" s="17"/>
-      <c r="FX1" s="17"/>
-      <c r="FY1" s="17"/>
-      <c r="FZ1" s="17"/>
-      <c r="GA1" s="17"/>
-      <c r="GB1" s="17"/>
-      <c r="GC1" s="17"/>
-      <c r="GD1" s="17"/>
-      <c r="GE1" s="17"/>
-      <c r="GF1" s="17"/>
-      <c r="GG1" s="17"/>
-      <c r="GH1" s="17"/>
-      <c r="GI1" s="17"/>
-      <c r="GJ1" s="17"/>
-      <c r="GK1" s="17"/>
-      <c r="GL1" s="17"/>
-      <c r="GM1" s="17"/>
-      <c r="GN1" s="17"/>
-      <c r="GO1" s="17"/>
-      <c r="GP1" s="17"/>
-      <c r="GQ1" s="17"/>
-      <c r="GR1" s="17"/>
-      <c r="GS1" s="17"/>
-      <c r="GT1" s="17"/>
-      <c r="GU1" s="17"/>
-      <c r="GV1" s="17"/>
-      <c r="GW1" s="17"/>
-      <c r="GX1" s="17"/>
-      <c r="GY1" s="17"/>
-      <c r="GZ1" s="17"/>
-      <c r="HA1" s="17"/>
-      <c r="HB1" s="17"/>
-      <c r="HC1" s="17"/>
-      <c r="HD1" s="17"/>
-      <c r="HE1" s="17"/>
-      <c r="HF1" s="17"/>
-      <c r="HG1" s="17"/>
-      <c r="HH1" s="17"/>
-      <c r="HI1" s="17"/>
-      <c r="HJ1" s="17"/>
-      <c r="HK1" s="17"/>
-      <c r="HL1" s="17"/>
-      <c r="HM1" s="17"/>
-      <c r="HN1" s="17"/>
-      <c r="HO1" s="17"/>
-      <c r="HP1" s="17"/>
-      <c r="HQ1" s="17"/>
-      <c r="HR1" s="17"/>
-      <c r="HS1" s="17"/>
-      <c r="HT1" s="17"/>
-      <c r="HU1" s="17"/>
-      <c r="HV1" s="17"/>
-      <c r="HW1" s="17"/>
-      <c r="HX1" s="17"/>
-      <c r="HY1" s="17"/>
-      <c r="HZ1" s="17"/>
-      <c r="IA1" s="17"/>
-      <c r="IB1" s="17"/>
-      <c r="IC1" s="17"/>
-      <c r="ID1" s="17"/>
-      <c r="IE1" s="17"/>
-      <c r="IF1" s="17"/>
-      <c r="IG1" s="17"/>
-      <c r="IH1" s="17"/>
-      <c r="II1" s="17"/>
-      <c r="IJ1" s="17"/>
-      <c r="IK1" s="17"/>
-      <c r="IL1" s="17"/>
-      <c r="IM1" s="17"/>
-      <c r="IN1" s="17"/>
-      <c r="IO1" s="17"/>
-      <c r="IP1" s="17"/>
-      <c r="IQ1" s="17"/>
-      <c r="IR1" s="17"/>
-      <c r="IS1" s="17"/>
-      <c r="IT1" s="17"/>
-      <c r="IU1" s="17"/>
-      <c r="IV1" s="17"/>
-      <c r="IW1" s="17"/>
-      <c r="IX1" s="17"/>
-      <c r="IY1" s="17"/>
-      <c r="IZ1" s="17"/>
-      <c r="JA1" s="17"/>
-      <c r="JB1" s="17"/>
-      <c r="JC1" s="17"/>
-      <c r="JD1" s="17"/>
-      <c r="JE1" s="17"/>
-      <c r="JF1" s="17"/>
-      <c r="JG1" s="17"/>
-      <c r="JH1" s="17"/>
-      <c r="JI1" s="17"/>
-      <c r="JJ1" s="17"/>
-      <c r="JK1" s="17"/>
-      <c r="JL1" s="17"/>
-      <c r="JM1" s="17"/>
-      <c r="JN1" s="17"/>
-      <c r="JO1" s="17"/>
-      <c r="JP1" s="17"/>
-      <c r="JQ1" s="17"/>
-      <c r="JR1" s="17"/>
-      <c r="JS1" s="17"/>
-      <c r="JT1" s="17"/>
-      <c r="JU1" s="17"/>
-      <c r="JV1" s="17"/>
-      <c r="JW1" s="17"/>
-      <c r="JX1" s="17"/>
-      <c r="JY1" s="17"/>
-      <c r="JZ1" s="17"/>
-      <c r="KA1" s="17"/>
-      <c r="KB1" s="17"/>
-      <c r="KC1" s="17"/>
-      <c r="KD1" s="17"/>
-      <c r="KE1" s="17"/>
-      <c r="KF1" s="17"/>
-      <c r="KG1" s="17"/>
-      <c r="KH1" s="17"/>
-      <c r="KI1" s="17"/>
-      <c r="KJ1" s="17"/>
-      <c r="KK1" s="17"/>
-      <c r="KL1" s="17"/>
-      <c r="KM1" s="17"/>
-      <c r="KN1" s="17"/>
-      <c r="KO1" s="17"/>
-      <c r="KP1" s="17"/>
-      <c r="KQ1" s="17"/>
-      <c r="KR1" s="17"/>
-      <c r="KS1" s="17"/>
-      <c r="KT1" s="17"/>
-      <c r="KU1" s="17"/>
-      <c r="KV1" s="17"/>
-      <c r="KW1" s="17"/>
-      <c r="KX1" s="17"/>
-      <c r="KY1" s="17"/>
-      <c r="KZ1" s="17"/>
-      <c r="LA1" s="17"/>
-      <c r="LB1" s="17"/>
-      <c r="LC1" s="17"/>
-      <c r="LD1" s="17"/>
-      <c r="LE1" s="17"/>
-      <c r="LF1" s="17"/>
-      <c r="LG1" s="17"/>
-      <c r="LH1" s="17"/>
-      <c r="LI1" s="17"/>
-      <c r="LJ1" s="17"/>
-      <c r="LK1" s="17"/>
-      <c r="LL1" s="17"/>
-      <c r="LM1" s="17"/>
-      <c r="LN1" s="17"/>
-      <c r="LO1" s="17"/>
-      <c r="LP1" s="17"/>
-      <c r="LQ1" s="17"/>
-      <c r="LR1" s="17"/>
-      <c r="LS1" s="17"/>
-      <c r="LT1" s="17"/>
-      <c r="LU1" s="17"/>
-      <c r="LV1" s="17"/>
-      <c r="LW1" s="17"/>
-      <c r="LX1" s="17"/>
-      <c r="LY1" s="17"/>
-      <c r="LZ1" s="17"/>
-      <c r="MA1" s="17"/>
-      <c r="MB1" s="17"/>
-      <c r="MC1" s="17"/>
-      <c r="MD1" s="17"/>
-      <c r="ME1" s="17"/>
-      <c r="MF1" s="17"/>
-      <c r="MG1" s="17"/>
-      <c r="MH1" s="17"/>
-      <c r="MI1" s="17"/>
-      <c r="MJ1" s="17"/>
-      <c r="MK1" s="17"/>
-      <c r="ML1" s="17"/>
-      <c r="MM1" s="17"/>
-      <c r="MN1" s="17"/>
-      <c r="MO1" s="17"/>
-      <c r="MP1" s="17"/>
-      <c r="MQ1" s="17"/>
-      <c r="MR1" s="17"/>
-      <c r="MS1" s="17"/>
-      <c r="MT1" s="17"/>
-      <c r="MU1" s="17"/>
-      <c r="MV1" s="17"/>
-      <c r="MW1" s="17"/>
-      <c r="MX1" s="17"/>
-      <c r="MY1" s="17"/>
-      <c r="MZ1" s="17"/>
-      <c r="NA1" s="17"/>
-      <c r="NB1" s="17"/>
-      <c r="NC1" s="17"/>
-      <c r="ND1" s="17"/>
-      <c r="NE1" s="17"/>
-      <c r="NF1" s="17"/>
-      <c r="NG1" s="17"/>
-      <c r="NH1" s="17"/>
-      <c r="NI1" s="17"/>
-      <c r="NJ1" s="17"/>
-      <c r="NK1" s="17"/>
-      <c r="NL1" s="17"/>
-      <c r="NM1" s="17"/>
-      <c r="NN1" s="17"/>
-      <c r="NO1" s="17"/>
-      <c r="NP1" s="17"/>
-      <c r="NQ1" s="17"/>
-      <c r="NR1" s="17"/>
-      <c r="NS1" s="17"/>
-      <c r="NT1" s="17"/>
-      <c r="NU1" s="17"/>
-      <c r="NV1" s="17"/>
-      <c r="NW1" s="17"/>
-      <c r="NX1" s="17"/>
-      <c r="NY1" s="17"/>
-      <c r="NZ1" s="17"/>
-      <c r="OA1" s="17"/>
-      <c r="OB1" s="17"/>
-      <c r="OC1" s="17"/>
-      <c r="OD1" s="17"/>
-      <c r="OE1" s="17"/>
-      <c r="OF1" s="17"/>
-      <c r="OG1" s="17"/>
-      <c r="OH1" s="17"/>
-      <c r="OI1" s="17"/>
-      <c r="OJ1" s="17"/>
-      <c r="OK1" s="17"/>
-      <c r="OL1" s="17"/>
-      <c r="OM1" s="17"/>
-      <c r="ON1" s="17"/>
-      <c r="OO1" s="17"/>
-      <c r="OP1" s="17"/>
-      <c r="OQ1" s="17"/>
-      <c r="OR1" s="17"/>
-      <c r="OS1" s="17"/>
-      <c r="OT1" s="17"/>
-      <c r="OU1" s="17"/>
-      <c r="OV1" s="17"/>
-      <c r="OW1" s="17"/>
-      <c r="OX1" s="17"/>
-      <c r="OY1" s="17"/>
-      <c r="OZ1" s="17"/>
-      <c r="PA1" s="17"/>
-      <c r="PB1" s="17"/>
-      <c r="PC1" s="17"/>
-      <c r="PD1" s="17"/>
-      <c r="PE1" s="17"/>
-      <c r="PF1" s="17"/>
-      <c r="PG1" s="17"/>
-      <c r="PH1" s="17"/>
-      <c r="PI1" s="17"/>
-      <c r="PJ1" s="17"/>
-      <c r="PK1" s="17"/>
-      <c r="PL1" s="17"/>
-      <c r="PM1" s="17"/>
-      <c r="PN1" s="17"/>
-      <c r="PO1" s="17"/>
-      <c r="PP1" s="17"/>
-      <c r="PQ1" s="17"/>
-      <c r="PR1" s="17"/>
-      <c r="PS1" s="17"/>
-      <c r="PT1" s="17"/>
-      <c r="PU1" s="17"/>
-      <c r="PV1" s="17"/>
-      <c r="PW1" s="17"/>
-      <c r="PX1" s="17"/>
-      <c r="PY1" s="17"/>
-      <c r="PZ1" s="17"/>
-      <c r="QA1" s="17"/>
-      <c r="QB1" s="17"/>
-      <c r="QC1" s="17"/>
-      <c r="QD1" s="17"/>
-      <c r="QE1" s="17"/>
-      <c r="QF1" s="17"/>
-      <c r="QG1" s="17"/>
-      <c r="QH1" s="17"/>
-      <c r="QI1" s="17"/>
-      <c r="QJ1" s="17"/>
-      <c r="QK1" s="17"/>
-      <c r="QL1" s="17"/>
-      <c r="QM1" s="17"/>
-      <c r="QN1" s="17"/>
-      <c r="QO1" s="17"/>
-      <c r="QP1" s="17"/>
-      <c r="QQ1" s="17"/>
-      <c r="QR1" s="17"/>
-      <c r="QS1" s="17"/>
-      <c r="QT1" s="17"/>
-      <c r="QU1" s="17"/>
-      <c r="QV1" s="17"/>
-      <c r="QW1" s="17"/>
-      <c r="QX1" s="17"/>
-      <c r="QY1" s="17"/>
-      <c r="QZ1" s="17"/>
-      <c r="RA1" s="17"/>
-      <c r="RB1" s="17"/>
-      <c r="RC1" s="17"/>
-      <c r="RD1" s="17"/>
-      <c r="RE1" s="17"/>
-      <c r="RF1" s="17"/>
-      <c r="RG1" s="17"/>
-      <c r="RH1" s="17"/>
-      <c r="RI1" s="17"/>
-      <c r="RJ1" s="17"/>
-      <c r="RK1" s="17"/>
-      <c r="RL1" s="17"/>
-      <c r="RM1" s="17"/>
-      <c r="RN1" s="17"/>
-      <c r="RO1" s="17"/>
-      <c r="RP1" s="17"/>
-      <c r="RQ1" s="17"/>
-      <c r="RR1" s="17"/>
-      <c r="RS1" s="17"/>
-      <c r="RT1" s="17"/>
-      <c r="RU1" s="17"/>
-      <c r="RV1" s="17"/>
-      <c r="RW1" s="17"/>
-      <c r="RX1" s="17"/>
-      <c r="RY1" s="17"/>
-      <c r="RZ1" s="17"/>
-      <c r="SA1" s="17"/>
-      <c r="SB1" s="17"/>
-      <c r="SC1" s="17"/>
-      <c r="SD1" s="17"/>
-      <c r="SE1" s="17"/>
-      <c r="SF1" s="17"/>
-      <c r="SG1" s="17"/>
-      <c r="SH1" s="17"/>
-      <c r="SI1" s="17"/>
-      <c r="SJ1" s="17"/>
-      <c r="SK1" s="17"/>
-      <c r="SL1" s="17"/>
-      <c r="SM1" s="17"/>
-      <c r="SN1" s="17"/>
-      <c r="SO1" s="17"/>
-      <c r="SP1" s="17"/>
-      <c r="SQ1" s="17"/>
-      <c r="SR1" s="17"/>
-      <c r="SS1" s="17"/>
-      <c r="ST1" s="17"/>
-      <c r="SU1" s="17"/>
-      <c r="SV1" s="17"/>
-      <c r="SW1" s="17"/>
-      <c r="SX1" s="17"/>
-      <c r="SY1" s="17"/>
-      <c r="SZ1" s="17"/>
-      <c r="TA1" s="17"/>
-      <c r="TB1" s="17"/>
-      <c r="TC1" s="17"/>
-      <c r="TD1" s="17"/>
-      <c r="TE1" s="17"/>
-      <c r="TF1" s="17"/>
-      <c r="TG1" s="17"/>
-      <c r="TH1" s="17"/>
-      <c r="TI1" s="17"/>
-      <c r="TJ1" s="17"/>
-      <c r="TK1" s="17"/>
-      <c r="TL1" s="17"/>
-      <c r="TM1" s="17"/>
-      <c r="TN1" s="17"/>
-      <c r="TO1" s="17"/>
-      <c r="TP1" s="17"/>
-      <c r="TQ1" s="17"/>
-      <c r="TR1" s="17"/>
-      <c r="TS1" s="17"/>
-      <c r="TT1" s="17"/>
-      <c r="TU1" s="17"/>
-      <c r="TV1" s="17"/>
-      <c r="TW1" s="17"/>
-      <c r="TX1" s="17"/>
-      <c r="TY1" s="17"/>
-      <c r="TZ1" s="17"/>
-      <c r="UA1" s="17"/>
-      <c r="UB1" s="17"/>
-      <c r="UC1" s="17"/>
-      <c r="UD1" s="17"/>
-      <c r="UE1" s="17"/>
-      <c r="UF1" s="17"/>
-      <c r="UG1" s="17"/>
-      <c r="UH1" s="17"/>
-      <c r="UI1" s="17"/>
-      <c r="UJ1" s="17"/>
-      <c r="UK1" s="17"/>
-      <c r="UL1" s="17"/>
-      <c r="UM1" s="17"/>
-      <c r="UN1" s="17"/>
-      <c r="UO1" s="17"/>
-      <c r="UP1" s="17"/>
-      <c r="UQ1" s="17"/>
-      <c r="UR1" s="17"/>
-      <c r="US1" s="17"/>
-      <c r="UT1" s="17"/>
-      <c r="UU1" s="17"/>
-      <c r="UV1" s="17"/>
-      <c r="UW1" s="17"/>
-      <c r="UX1" s="17"/>
-      <c r="UY1" s="17"/>
-      <c r="UZ1" s="17"/>
-      <c r="VA1" s="17"/>
-      <c r="VB1" s="17"/>
-      <c r="VC1" s="17"/>
-      <c r="VD1" s="17"/>
-      <c r="VE1" s="17"/>
-      <c r="VF1" s="17"/>
-      <c r="VG1" s="17"/>
-      <c r="VH1" s="17"/>
-      <c r="VI1" s="17"/>
-      <c r="VJ1" s="17"/>
-      <c r="VK1" s="17"/>
-      <c r="VL1" s="17"/>
-      <c r="VM1" s="17"/>
-      <c r="VN1" s="17"/>
-      <c r="VO1" s="17"/>
-      <c r="VP1" s="17"/>
-      <c r="VQ1" s="17"/>
-      <c r="VR1" s="17"/>
-      <c r="VS1" s="17"/>
-      <c r="VT1" s="17"/>
-      <c r="VU1" s="17"/>
-      <c r="VV1" s="17"/>
-      <c r="VW1" s="17"/>
-      <c r="VX1" s="17"/>
-      <c r="VY1" s="17"/>
-      <c r="VZ1" s="17"/>
-      <c r="WA1" s="17"/>
-      <c r="WB1" s="17"/>
-      <c r="WC1" s="17"/>
-      <c r="WD1" s="17"/>
-      <c r="WE1" s="17"/>
-      <c r="WF1" s="17"/>
-      <c r="WG1" s="17"/>
-      <c r="WH1" s="17"/>
-      <c r="WI1" s="17"/>
-      <c r="WJ1" s="17"/>
-      <c r="WK1" s="17"/>
-      <c r="WL1" s="17"/>
-      <c r="WM1" s="17"/>
-      <c r="WN1" s="17"/>
-      <c r="WO1" s="17"/>
-      <c r="WP1" s="17"/>
-      <c r="WQ1" s="17"/>
-      <c r="WR1" s="17"/>
-      <c r="WS1" s="17"/>
-      <c r="WT1" s="17"/>
-      <c r="WU1" s="17"/>
-      <c r="WV1" s="17"/>
-      <c r="WW1" s="17"/>
-      <c r="WX1" s="17"/>
-      <c r="WY1" s="17"/>
-      <c r="WZ1" s="17"/>
-      <c r="XA1" s="17"/>
-      <c r="XB1" s="17"/>
-      <c r="XC1" s="17"/>
-      <c r="XD1" s="17"/>
-      <c r="XE1" s="17"/>
-      <c r="XF1" s="17"/>
-      <c r="XG1" s="17"/>
-      <c r="XH1" s="17"/>
-      <c r="XI1" s="17"/>
-      <c r="XJ1" s="17"/>
-      <c r="XK1" s="17"/>
-      <c r="XL1" s="17"/>
-      <c r="XM1" s="17"/>
-      <c r="XN1" s="17"/>
-      <c r="XO1" s="17"/>
-      <c r="XP1" s="17"/>
-      <c r="XQ1" s="17"/>
-      <c r="XR1" s="17"/>
-      <c r="XS1" s="17"/>
-      <c r="XT1" s="17"/>
-      <c r="XU1" s="17"/>
-      <c r="XV1" s="17"/>
-      <c r="XW1" s="17"/>
-      <c r="XX1" s="17"/>
-      <c r="XY1" s="17"/>
-      <c r="XZ1" s="17"/>
-      <c r="YA1" s="17"/>
-      <c r="YB1" s="17"/>
-      <c r="YC1" s="17"/>
-      <c r="YD1" s="17"/>
-      <c r="YE1" s="17"/>
-      <c r="YF1" s="17"/>
-      <c r="YG1" s="17"/>
-      <c r="YH1" s="17"/>
-      <c r="YI1" s="17"/>
-      <c r="YJ1" s="17"/>
-      <c r="YK1" s="17"/>
-      <c r="YL1" s="17"/>
-      <c r="YM1" s="17"/>
-      <c r="YN1" s="17"/>
-      <c r="YO1" s="17"/>
-      <c r="YP1" s="17"/>
-      <c r="YQ1" s="17"/>
-      <c r="YR1" s="17"/>
-      <c r="YS1" s="17"/>
-      <c r="YT1" s="17"/>
-      <c r="YU1" s="17"/>
-      <c r="YV1" s="17"/>
-      <c r="YW1" s="17"/>
-      <c r="YX1" s="17"/>
-      <c r="YY1" s="17"/>
-      <c r="YZ1" s="17"/>
-      <c r="ZA1" s="17"/>
-      <c r="ZB1" s="17"/>
-      <c r="ZC1" s="17"/>
-      <c r="ZD1" s="17"/>
-      <c r="ZE1" s="17"/>
-      <c r="ZF1" s="17"/>
-      <c r="ZG1" s="17"/>
-      <c r="ZH1" s="17"/>
-      <c r="ZI1" s="17"/>
-      <c r="ZJ1" s="17"/>
-      <c r="ZK1" s="17"/>
-      <c r="ZL1" s="17"/>
-      <c r="ZM1" s="17"/>
-      <c r="ZN1" s="17"/>
-      <c r="ZO1" s="17"/>
-      <c r="ZP1" s="17"/>
-      <c r="ZQ1" s="17"/>
-      <c r="ZR1" s="17"/>
-      <c r="ZS1" s="17"/>
-      <c r="ZT1" s="17"/>
-      <c r="ZU1" s="17"/>
-      <c r="ZV1" s="17"/>
-      <c r="ZW1" s="17"/>
-      <c r="ZX1" s="17"/>
-      <c r="ZY1" s="17"/>
-      <c r="ZZ1" s="17"/>
-      <c r="AAA1" s="17"/>
-      <c r="AAB1" s="17"/>
-      <c r="AAC1" s="17"/>
-      <c r="AAD1" s="17"/>
-      <c r="AAE1" s="17"/>
-      <c r="AAF1" s="17"/>
-      <c r="AAG1" s="17"/>
-      <c r="AAH1" s="17"/>
-      <c r="AAI1" s="17"/>
-      <c r="AAJ1" s="17"/>
-      <c r="AAK1" s="17"/>
-      <c r="AAL1" s="17"/>
-      <c r="AAM1" s="17"/>
-      <c r="AAN1" s="17"/>
-      <c r="AAO1" s="17"/>
-      <c r="AAP1" s="17"/>
-      <c r="AAQ1" s="17"/>
-      <c r="AAR1" s="17"/>
-      <c r="AAS1" s="17"/>
-      <c r="AAT1" s="17"/>
-      <c r="AAU1" s="17"/>
-      <c r="AAV1" s="17"/>
-      <c r="AAW1" s="17"/>
-      <c r="AAX1" s="17"/>
-      <c r="AAY1" s="17"/>
-      <c r="AAZ1" s="17"/>
-      <c r="ABA1" s="17"/>
-      <c r="ABB1" s="17"/>
-      <c r="ABC1" s="17"/>
-      <c r="ABD1" s="17"/>
-      <c r="ABE1" s="17"/>
-      <c r="ABF1" s="17"/>
-      <c r="ABG1" s="17"/>
-      <c r="ABH1" s="17"/>
-      <c r="ABI1" s="17"/>
-      <c r="ABJ1" s="17"/>
-      <c r="ABK1" s="17"/>
-      <c r="ABL1" s="17"/>
-      <c r="ABM1" s="17"/>
-      <c r="ABN1" s="17"/>
-      <c r="ABO1" s="17"/>
-      <c r="ABP1" s="17"/>
-      <c r="ABQ1" s="17"/>
-      <c r="ABR1" s="17"/>
-      <c r="ABS1" s="17"/>
-      <c r="ABT1" s="17"/>
-      <c r="ABU1" s="17"/>
-      <c r="ABV1" s="17"/>
-      <c r="ABW1" s="17"/>
-      <c r="ABX1" s="17"/>
-      <c r="ABY1" s="17"/>
-      <c r="ABZ1" s="17"/>
-      <c r="ACA1" s="17"/>
-      <c r="ACB1" s="17"/>
-      <c r="ACC1" s="17"/>
-      <c r="ACD1" s="17"/>
-      <c r="ACE1" s="17"/>
-      <c r="ACF1" s="17"/>
-      <c r="ACG1" s="17"/>
-      <c r="ACH1" s="17"/>
-      <c r="ACI1" s="17"/>
-      <c r="ACJ1" s="17"/>
-      <c r="ACK1" s="17"/>
-      <c r="ACL1" s="17"/>
-      <c r="ACM1" s="17"/>
-      <c r="ACN1" s="17"/>
-      <c r="ACO1" s="17"/>
-      <c r="ACP1" s="17"/>
-      <c r="ACQ1" s="17"/>
-      <c r="ACR1" s="17"/>
-      <c r="ACS1" s="17"/>
-      <c r="ACT1" s="17"/>
-      <c r="ACU1" s="17"/>
-      <c r="ACV1" s="17"/>
-      <c r="ACW1" s="17"/>
-      <c r="ACX1" s="17"/>
-      <c r="ACY1" s="17"/>
-      <c r="ACZ1" s="17"/>
-      <c r="ADA1" s="17"/>
-      <c r="ADB1" s="17"/>
-      <c r="ADC1" s="17"/>
-      <c r="ADD1" s="17"/>
-      <c r="ADE1" s="17"/>
-      <c r="ADF1" s="17"/>
-      <c r="ADG1" s="17"/>
-      <c r="ADH1" s="17"/>
-      <c r="ADI1" s="17"/>
-      <c r="ADJ1" s="17"/>
-      <c r="ADK1" s="17"/>
-      <c r="ADL1" s="17"/>
-      <c r="ADM1" s="17"/>
-      <c r="ADN1" s="17"/>
-      <c r="ADO1" s="17"/>
-      <c r="ADP1" s="17"/>
-      <c r="ADQ1" s="17"/>
-      <c r="ADR1" s="17"/>
-      <c r="ADS1" s="17"/>
-      <c r="ADT1" s="17"/>
-      <c r="ADU1" s="17"/>
-      <c r="ADV1" s="17"/>
-      <c r="ADW1" s="17"/>
-      <c r="ADX1" s="17"/>
-      <c r="ADY1" s="17"/>
-      <c r="ADZ1" s="17"/>
-      <c r="AEA1" s="17"/>
-      <c r="AEB1" s="17"/>
-      <c r="AEC1" s="17"/>
-      <c r="AED1" s="17"/>
-      <c r="AEE1" s="17"/>
-      <c r="AEF1" s="17"/>
-      <c r="AEG1" s="17"/>
-      <c r="AEH1" s="17"/>
-      <c r="AEI1" s="17"/>
-      <c r="AEJ1" s="17"/>
-      <c r="AEK1" s="17"/>
-      <c r="AEL1" s="17"/>
-      <c r="AEM1" s="17"/>
-      <c r="AEN1" s="17"/>
-      <c r="AEO1" s="17"/>
-      <c r="AEP1" s="17"/>
-      <c r="AEQ1" s="17"/>
-      <c r="AER1" s="17"/>
-      <c r="AES1" s="17"/>
-      <c r="AET1" s="17"/>
-      <c r="AEU1" s="17"/>
-      <c r="AEV1" s="17"/>
-      <c r="AEW1" s="17"/>
-      <c r="AEX1" s="17"/>
-      <c r="AEY1" s="17"/>
-      <c r="AEZ1" s="17"/>
-      <c r="AFA1" s="17"/>
-      <c r="AFB1" s="17"/>
-      <c r="AFC1" s="17"/>
-      <c r="AFD1" s="17"/>
-      <c r="AFE1" s="17"/>
-      <c r="AFF1" s="17"/>
-      <c r="AFG1" s="17"/>
-      <c r="AFH1" s="17"/>
-      <c r="AFI1" s="17"/>
-      <c r="AFJ1" s="17"/>
-      <c r="AFK1" s="17"/>
-      <c r="AFL1" s="17"/>
-      <c r="AFM1" s="17"/>
-      <c r="AFN1" s="17"/>
-      <c r="AFO1" s="17"/>
-      <c r="AFP1" s="17"/>
-      <c r="AFQ1" s="17"/>
-      <c r="AFR1" s="17"/>
-      <c r="AFS1" s="17"/>
-      <c r="AFT1" s="17"/>
-      <c r="AFU1" s="17"/>
-      <c r="AFV1" s="17"/>
-      <c r="AFW1" s="17"/>
-      <c r="AFX1" s="17"/>
-      <c r="AFY1" s="17"/>
-      <c r="AFZ1" s="17"/>
-      <c r="AGA1" s="17"/>
-      <c r="AGB1" s="17"/>
-      <c r="AGC1" s="17"/>
-      <c r="AGD1" s="17"/>
-      <c r="AGE1" s="17"/>
-      <c r="AGF1" s="17"/>
-      <c r="AGG1" s="17"/>
-      <c r="AGH1" s="17"/>
-      <c r="AGI1" s="17"/>
-      <c r="AGJ1" s="17"/>
-      <c r="AGK1" s="17"/>
-      <c r="AGL1" s="17"/>
-      <c r="AGM1" s="17"/>
-      <c r="AGN1" s="17"/>
-      <c r="AGO1" s="17"/>
-      <c r="AGP1" s="17"/>
-      <c r="AGQ1" s="17"/>
-      <c r="AGR1" s="17"/>
-      <c r="AGS1" s="17"/>
-      <c r="AGT1" s="17"/>
-      <c r="AGU1" s="17"/>
-      <c r="AGV1" s="17"/>
-      <c r="AGW1" s="17"/>
-      <c r="AGX1" s="17"/>
-      <c r="AGY1" s="17"/>
-      <c r="AGZ1" s="17"/>
-      <c r="AHA1" s="17"/>
-      <c r="AHB1" s="17"/>
-      <c r="AHC1" s="17"/>
-      <c r="AHD1" s="17"/>
-      <c r="AHE1" s="17"/>
-      <c r="AHF1" s="17"/>
-      <c r="AHG1" s="17"/>
-      <c r="AHH1" s="17"/>
-      <c r="AHI1" s="17"/>
-      <c r="AHJ1" s="17"/>
-      <c r="AHK1" s="17"/>
-      <c r="AHL1" s="17"/>
-      <c r="AHM1" s="17"/>
-      <c r="AHN1" s="17"/>
-      <c r="AHO1" s="17"/>
-      <c r="AHP1" s="17"/>
-      <c r="AHQ1" s="17"/>
-      <c r="AHR1" s="17"/>
-      <c r="AHS1" s="17"/>
-      <c r="AHT1" s="17"/>
-      <c r="AHU1" s="17"/>
-      <c r="AHV1" s="17"/>
-      <c r="AHW1" s="17"/>
-      <c r="AHX1" s="17"/>
-      <c r="AHY1" s="17"/>
-      <c r="AHZ1" s="17"/>
-      <c r="AIA1" s="17"/>
-      <c r="AIB1" s="17"/>
-      <c r="AIC1" s="17"/>
-      <c r="AID1" s="17"/>
-      <c r="AIE1" s="17"/>
-      <c r="AIF1" s="17"/>
-      <c r="AIG1" s="17"/>
-      <c r="AIH1" s="17"/>
-      <c r="AII1" s="17"/>
-      <c r="AIJ1" s="17"/>
-      <c r="AIK1" s="17"/>
-      <c r="AIL1" s="17"/>
-      <c r="AIM1" s="17"/>
-      <c r="AIN1" s="17"/>
-      <c r="AIO1" s="17"/>
-      <c r="AIP1" s="17"/>
-      <c r="AIQ1" s="17"/>
-      <c r="AIR1" s="17"/>
-      <c r="AIS1" s="17"/>
-      <c r="AIT1" s="17"/>
-      <c r="AIU1" s="17"/>
-      <c r="AIV1" s="17"/>
-      <c r="AIW1" s="17"/>
-      <c r="AIX1" s="17"/>
-      <c r="AIY1" s="17"/>
-      <c r="AIZ1" s="17"/>
-      <c r="AJA1" s="17"/>
-      <c r="AJB1" s="17"/>
-      <c r="AJC1" s="17"/>
-      <c r="AJD1" s="17"/>
-      <c r="AJE1" s="17"/>
-      <c r="AJF1" s="17"/>
-      <c r="AJG1" s="17"/>
-      <c r="AJH1" s="17"/>
-      <c r="AJI1" s="17"/>
-      <c r="AJJ1" s="17"/>
-      <c r="AJK1" s="17"/>
-      <c r="AJL1" s="17"/>
-      <c r="AJM1" s="17"/>
-      <c r="AJN1" s="17"/>
-      <c r="AJO1" s="17"/>
-      <c r="AJP1" s="17"/>
-      <c r="AJQ1" s="17"/>
-      <c r="AJR1" s="17"/>
-      <c r="AJS1" s="17"/>
-      <c r="AJT1" s="17"/>
-      <c r="AJU1" s="17"/>
-      <c r="AJV1" s="17"/>
-      <c r="AJW1" s="17"/>
-      <c r="AJX1" s="17"/>
-      <c r="AJY1" s="17"/>
-      <c r="AJZ1" s="17"/>
-      <c r="AKA1" s="17"/>
-      <c r="AKB1" s="17"/>
-      <c r="AKC1" s="17"/>
-      <c r="AKD1" s="17"/>
-      <c r="AKE1" s="17"/>
-      <c r="AKF1" s="17"/>
-      <c r="AKG1" s="17"/>
-      <c r="AKH1" s="17"/>
-      <c r="AKI1" s="17"/>
-      <c r="AKJ1" s="17"/>
-      <c r="AKK1" s="17"/>
-      <c r="AKL1" s="17"/>
-      <c r="AKM1" s="17"/>
-      <c r="AKN1" s="17"/>
-      <c r="AKO1" s="17"/>
-      <c r="AKP1" s="17"/>
-      <c r="AKQ1" s="17"/>
-      <c r="AKR1" s="17"/>
-      <c r="AKS1" s="17"/>
-      <c r="AKT1" s="17"/>
-      <c r="AKU1" s="17"/>
-      <c r="AKV1" s="17"/>
-      <c r="AKW1" s="17"/>
-      <c r="AKX1" s="17"/>
-      <c r="AKY1" s="17"/>
-      <c r="AKZ1" s="17"/>
-      <c r="ALA1" s="17"/>
-      <c r="ALB1" s="17"/>
-      <c r="ALC1" s="17"/>
-      <c r="ALD1" s="17"/>
-      <c r="ALE1" s="17"/>
-      <c r="ALF1" s="17"/>
-      <c r="ALG1" s="17"/>
-      <c r="ALH1" s="17"/>
-      <c r="ALI1" s="17"/>
-      <c r="ALJ1" s="17"/>
-      <c r="ALK1" s="17"/>
-      <c r="ALL1" s="17"/>
-      <c r="ALM1" s="17"/>
-      <c r="ALN1" s="17"/>
-      <c r="ALO1" s="17"/>
-      <c r="ALP1" s="17"/>
-      <c r="ALQ1" s="17"/>
-      <c r="ALR1" s="17"/>
-      <c r="ALS1" s="17"/>
-      <c r="ALT1" s="17"/>
-      <c r="ALU1" s="17"/>
-      <c r="ALV1" s="17"/>
-      <c r="ALW1" s="17"/>
-      <c r="ALX1" s="17"/>
-      <c r="ALY1" s="17"/>
-      <c r="ALZ1" s="17"/>
-      <c r="AMA1" s="17"/>
-      <c r="AMB1" s="17"/>
-      <c r="AMC1" s="17"/>
-      <c r="AMD1" s="17"/>
-      <c r="AME1" s="17"/>
-      <c r="AMF1" s="17"/>
-      <c r="AMG1" s="17"/>
-      <c r="AMH1" s="17"/>
-      <c r="AMI1" s="17"/>
-      <c r="AMJ1" s="17"/>
-      <c r="AMK1" s="17"/>
-      <c r="AML1" s="17"/>
-      <c r="AMM1" s="17"/>
-      <c r="AMN1" s="17"/>
-      <c r="AMO1" s="17"/>
-      <c r="AMP1" s="17"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
+      <c r="DT1" s="18"/>
+      <c r="DU1" s="18"/>
+      <c r="DV1" s="18"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+      <c r="DZ1" s="18"/>
+      <c r="EA1" s="18"/>
+      <c r="EB1" s="18"/>
+      <c r="EC1" s="18"/>
+      <c r="ED1" s="18"/>
+      <c r="EE1" s="18"/>
+      <c r="EF1" s="18"/>
+      <c r="EG1" s="18"/>
+      <c r="EH1" s="18"/>
+      <c r="EI1" s="18"/>
+      <c r="EJ1" s="18"/>
+      <c r="EK1" s="18"/>
+      <c r="EL1" s="18"/>
+      <c r="EM1" s="18"/>
+      <c r="EN1" s="18"/>
+      <c r="EO1" s="18"/>
+      <c r="EP1" s="18"/>
+      <c r="EQ1" s="18"/>
+      <c r="ER1" s="18"/>
+      <c r="ES1" s="18"/>
+      <c r="ET1" s="18"/>
+      <c r="EU1" s="18"/>
+      <c r="EV1" s="18"/>
+      <c r="EW1" s="18"/>
+      <c r="EX1" s="18"/>
+      <c r="EY1" s="18"/>
+      <c r="EZ1" s="18"/>
+      <c r="FA1" s="18"/>
+      <c r="FB1" s="18"/>
+      <c r="FC1" s="18"/>
+      <c r="FD1" s="18"/>
+      <c r="FE1" s="18"/>
+      <c r="FF1" s="18"/>
+      <c r="FG1" s="18"/>
+      <c r="FH1" s="18"/>
+      <c r="FI1" s="18"/>
+      <c r="FJ1" s="18"/>
+      <c r="FK1" s="18"/>
+      <c r="FL1" s="18"/>
+      <c r="FM1" s="18"/>
+      <c r="FN1" s="18"/>
+      <c r="FO1" s="18"/>
+      <c r="FP1" s="18"/>
+      <c r="FQ1" s="18"/>
+      <c r="FR1" s="18"/>
+      <c r="FS1" s="18"/>
+      <c r="FT1" s="18"/>
+      <c r="FU1" s="18"/>
+      <c r="FV1" s="18"/>
+      <c r="FW1" s="18"/>
+      <c r="FX1" s="18"/>
+      <c r="FY1" s="18"/>
+      <c r="FZ1" s="18"/>
+      <c r="GA1" s="18"/>
+      <c r="GB1" s="18"/>
+      <c r="GC1" s="18"/>
+      <c r="GD1" s="18"/>
+      <c r="GE1" s="18"/>
+      <c r="GF1" s="18"/>
+      <c r="GG1" s="18"/>
+      <c r="GH1" s="18"/>
+      <c r="GI1" s="18"/>
+      <c r="GJ1" s="18"/>
+      <c r="GK1" s="18"/>
+      <c r="GL1" s="18"/>
+      <c r="GM1" s="18"/>
+      <c r="GN1" s="18"/>
+      <c r="GO1" s="18"/>
+      <c r="GP1" s="18"/>
+      <c r="GQ1" s="18"/>
+      <c r="GR1" s="18"/>
+      <c r="GS1" s="18"/>
+      <c r="GT1" s="18"/>
+      <c r="GU1" s="18"/>
+      <c r="GV1" s="18"/>
+      <c r="GW1" s="18"/>
+      <c r="GX1" s="18"/>
+      <c r="GY1" s="18"/>
+      <c r="GZ1" s="18"/>
+      <c r="HA1" s="18"/>
+      <c r="HB1" s="18"/>
+      <c r="HC1" s="18"/>
+      <c r="HD1" s="18"/>
+      <c r="HE1" s="18"/>
+      <c r="HF1" s="18"/>
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="18"/>
+      <c r="IL1" s="18"/>
+      <c r="IM1" s="18"/>
+      <c r="IN1" s="18"/>
+      <c r="IO1" s="18"/>
+      <c r="IP1" s="18"/>
+      <c r="IQ1" s="18"/>
+      <c r="IR1" s="18"/>
+      <c r="IS1" s="18"/>
+      <c r="IT1" s="18"/>
+      <c r="IU1" s="18"/>
+      <c r="IV1" s="18"/>
+      <c r="IW1" s="18"/>
+      <c r="IX1" s="18"/>
+      <c r="IY1" s="18"/>
+      <c r="IZ1" s="18"/>
+      <c r="JA1" s="18"/>
+      <c r="JB1" s="18"/>
+      <c r="JC1" s="18"/>
+      <c r="JD1" s="18"/>
+      <c r="JE1" s="18"/>
+      <c r="JF1" s="18"/>
+      <c r="JG1" s="18"/>
+      <c r="JH1" s="18"/>
+      <c r="JI1" s="18"/>
+      <c r="JJ1" s="18"/>
+      <c r="JK1" s="18"/>
+      <c r="JL1" s="18"/>
+      <c r="JM1" s="18"/>
+      <c r="JN1" s="18"/>
+      <c r="JO1" s="18"/>
+      <c r="JP1" s="18"/>
+      <c r="JQ1" s="18"/>
+      <c r="JR1" s="18"/>
+      <c r="JS1" s="18"/>
+      <c r="JT1" s="18"/>
+      <c r="JU1" s="18"/>
+      <c r="JV1" s="18"/>
+      <c r="JW1" s="18"/>
+      <c r="JX1" s="18"/>
+      <c r="JY1" s="18"/>
+      <c r="JZ1" s="18"/>
+      <c r="KA1" s="18"/>
+      <c r="KB1" s="18"/>
+      <c r="KC1" s="18"/>
+      <c r="KD1" s="18"/>
+      <c r="KE1" s="18"/>
+      <c r="KF1" s="18"/>
+      <c r="KG1" s="18"/>
+      <c r="KH1" s="18"/>
+      <c r="KI1" s="18"/>
+      <c r="KJ1" s="18"/>
+      <c r="KK1" s="18"/>
+      <c r="KL1" s="18"/>
+      <c r="KM1" s="18"/>
+      <c r="KN1" s="18"/>
+      <c r="KO1" s="18"/>
+      <c r="KP1" s="18"/>
+      <c r="KQ1" s="18"/>
+      <c r="KR1" s="18"/>
+      <c r="KS1" s="18"/>
+      <c r="KT1" s="18"/>
+      <c r="KU1" s="18"/>
+      <c r="KV1" s="18"/>
+      <c r="KW1" s="18"/>
+      <c r="KX1" s="18"/>
+      <c r="KY1" s="18"/>
+      <c r="KZ1" s="18"/>
+      <c r="LA1" s="18"/>
+      <c r="LB1" s="18"/>
+      <c r="LC1" s="18"/>
+      <c r="LD1" s="18"/>
+      <c r="LE1" s="18"/>
+      <c r="LF1" s="18"/>
+      <c r="LG1" s="18"/>
+      <c r="LH1" s="18"/>
+      <c r="LI1" s="18"/>
+      <c r="LJ1" s="18"/>
+      <c r="LK1" s="18"/>
+      <c r="LL1" s="18"/>
+      <c r="LM1" s="18"/>
+      <c r="LN1" s="18"/>
+      <c r="LO1" s="18"/>
+      <c r="LP1" s="18"/>
+      <c r="LQ1" s="18"/>
+      <c r="LR1" s="18"/>
+      <c r="LS1" s="18"/>
+      <c r="LT1" s="18"/>
+      <c r="LU1" s="18"/>
+      <c r="LV1" s="18"/>
+      <c r="LW1" s="18"/>
+      <c r="LX1" s="18"/>
+      <c r="LY1" s="18"/>
+      <c r="LZ1" s="18"/>
+      <c r="MA1" s="18"/>
+      <c r="MB1" s="18"/>
+      <c r="MC1" s="18"/>
+      <c r="MD1" s="18"/>
+      <c r="ME1" s="18"/>
+      <c r="MF1" s="18"/>
+      <c r="MG1" s="18"/>
+      <c r="MH1" s="18"/>
+      <c r="MI1" s="18"/>
+      <c r="MJ1" s="18"/>
+      <c r="MK1" s="18"/>
+      <c r="ML1" s="18"/>
+      <c r="MM1" s="18"/>
+      <c r="MN1" s="18"/>
+      <c r="MO1" s="18"/>
+      <c r="MP1" s="18"/>
+      <c r="MQ1" s="18"/>
+      <c r="MR1" s="18"/>
+      <c r="MS1" s="18"/>
+      <c r="MT1" s="18"/>
+      <c r="MU1" s="18"/>
+      <c r="MV1" s="18"/>
+      <c r="MW1" s="18"/>
+      <c r="MX1" s="18"/>
+      <c r="MY1" s="18"/>
+      <c r="MZ1" s="18"/>
+      <c r="NA1" s="18"/>
+      <c r="NB1" s="18"/>
+      <c r="NC1" s="18"/>
+      <c r="ND1" s="18"/>
+      <c r="NE1" s="18"/>
+      <c r="NF1" s="18"/>
+      <c r="NG1" s="18"/>
+      <c r="NH1" s="18"/>
+      <c r="NI1" s="18"/>
+      <c r="NJ1" s="18"/>
+      <c r="NK1" s="18"/>
+      <c r="NL1" s="18"/>
+      <c r="NM1" s="18"/>
+      <c r="NN1" s="18"/>
+      <c r="NO1" s="18"/>
+      <c r="NP1" s="18"/>
+      <c r="NQ1" s="18"/>
+      <c r="NR1" s="18"/>
+      <c r="NS1" s="18"/>
+      <c r="NT1" s="18"/>
+      <c r="NU1" s="18"/>
+      <c r="NV1" s="18"/>
+      <c r="NW1" s="18"/>
+      <c r="NX1" s="18"/>
+      <c r="NY1" s="18"/>
+      <c r="NZ1" s="18"/>
+      <c r="OA1" s="18"/>
+      <c r="OB1" s="18"/>
+      <c r="OC1" s="18"/>
+      <c r="OD1" s="18"/>
+      <c r="OE1" s="18"/>
+      <c r="OF1" s="18"/>
+      <c r="OG1" s="18"/>
+      <c r="OH1" s="18"/>
+      <c r="OI1" s="18"/>
+      <c r="OJ1" s="18"/>
+      <c r="OK1" s="18"/>
+      <c r="OL1" s="18"/>
+      <c r="OM1" s="18"/>
+      <c r="ON1" s="18"/>
+      <c r="OO1" s="18"/>
+      <c r="OP1" s="18"/>
+      <c r="OQ1" s="18"/>
+      <c r="OR1" s="18"/>
+      <c r="OS1" s="18"/>
+      <c r="OT1" s="18"/>
+      <c r="OU1" s="18"/>
+      <c r="OV1" s="18"/>
+      <c r="OW1" s="18"/>
+      <c r="OX1" s="18"/>
+      <c r="OY1" s="18"/>
+      <c r="OZ1" s="18"/>
+      <c r="PA1" s="18"/>
+      <c r="PB1" s="18"/>
+      <c r="PC1" s="18"/>
+      <c r="PD1" s="18"/>
+      <c r="PE1" s="18"/>
+      <c r="PF1" s="18"/>
+      <c r="PG1" s="18"/>
+      <c r="PH1" s="18"/>
+      <c r="PI1" s="18"/>
+      <c r="PJ1" s="18"/>
+      <c r="PK1" s="18"/>
+      <c r="PL1" s="18"/>
+      <c r="PM1" s="18"/>
+      <c r="PN1" s="18"/>
+      <c r="PO1" s="18"/>
+      <c r="PP1" s="18"/>
+      <c r="PQ1" s="18"/>
+      <c r="PR1" s="18"/>
+      <c r="PS1" s="18"/>
+      <c r="PT1" s="18"/>
+      <c r="PU1" s="18"/>
+      <c r="PV1" s="18"/>
+      <c r="PW1" s="18"/>
+      <c r="PX1" s="18"/>
+      <c r="PY1" s="18"/>
+      <c r="PZ1" s="18"/>
+      <c r="QA1" s="18"/>
+      <c r="QB1" s="18"/>
+      <c r="QC1" s="18"/>
+      <c r="QD1" s="18"/>
+      <c r="QE1" s="18"/>
+      <c r="QF1" s="18"/>
+      <c r="QG1" s="18"/>
+      <c r="QH1" s="18"/>
+      <c r="QI1" s="18"/>
+      <c r="QJ1" s="18"/>
+      <c r="QK1" s="18"/>
+      <c r="QL1" s="18"/>
+      <c r="QM1" s="18"/>
+      <c r="QN1" s="18"/>
+      <c r="QO1" s="18"/>
+      <c r="QP1" s="18"/>
+      <c r="QQ1" s="18"/>
+      <c r="QR1" s="18"/>
+      <c r="QS1" s="18"/>
+      <c r="QT1" s="18"/>
+      <c r="QU1" s="18"/>
+      <c r="QV1" s="18"/>
+      <c r="QW1" s="18"/>
+      <c r="QX1" s="18"/>
+      <c r="QY1" s="18"/>
+      <c r="QZ1" s="18"/>
+      <c r="RA1" s="18"/>
+      <c r="RB1" s="18"/>
+      <c r="RC1" s="18"/>
+      <c r="RD1" s="18"/>
+      <c r="RE1" s="18"/>
+      <c r="RF1" s="18"/>
+      <c r="RG1" s="18"/>
+      <c r="RH1" s="18"/>
+      <c r="RI1" s="18"/>
+      <c r="RJ1" s="18"/>
+      <c r="RK1" s="18"/>
+      <c r="RL1" s="18"/>
+      <c r="RM1" s="18"/>
+      <c r="RN1" s="18"/>
+      <c r="RO1" s="18"/>
+      <c r="RP1" s="18"/>
+      <c r="RQ1" s="18"/>
+      <c r="RR1" s="18"/>
+      <c r="RS1" s="18"/>
+      <c r="RT1" s="18"/>
+      <c r="RU1" s="18"/>
+      <c r="RV1" s="18"/>
+      <c r="RW1" s="18"/>
+      <c r="RX1" s="18"/>
+      <c r="RY1" s="18"/>
+      <c r="RZ1" s="18"/>
+      <c r="SA1" s="18"/>
+      <c r="SB1" s="18"/>
+      <c r="SC1" s="18"/>
+      <c r="SD1" s="18"/>
+      <c r="SE1" s="18"/>
+      <c r="SF1" s="18"/>
+      <c r="SG1" s="18"/>
+      <c r="SH1" s="18"/>
+      <c r="SI1" s="18"/>
+      <c r="SJ1" s="18"/>
+      <c r="SK1" s="18"/>
+      <c r="SL1" s="18"/>
+      <c r="SM1" s="18"/>
+      <c r="SN1" s="18"/>
+      <c r="SO1" s="18"/>
+      <c r="SP1" s="18"/>
+      <c r="SQ1" s="18"/>
+      <c r="SR1" s="18"/>
+      <c r="SS1" s="18"/>
+      <c r="ST1" s="18"/>
+      <c r="SU1" s="18"/>
+      <c r="SV1" s="18"/>
+      <c r="SW1" s="18"/>
+      <c r="SX1" s="18"/>
+      <c r="SY1" s="18"/>
+      <c r="SZ1" s="18"/>
+      <c r="TA1" s="18"/>
+      <c r="TB1" s="18"/>
+      <c r="TC1" s="18"/>
+      <c r="TD1" s="18"/>
+      <c r="TE1" s="18"/>
+      <c r="TF1" s="18"/>
+      <c r="TG1" s="18"/>
+      <c r="TH1" s="18"/>
+      <c r="TI1" s="18"/>
+      <c r="TJ1" s="18"/>
+      <c r="TK1" s="18"/>
+      <c r="TL1" s="18"/>
+      <c r="TM1" s="18"/>
+      <c r="TN1" s="18"/>
+      <c r="TO1" s="18"/>
+      <c r="TP1" s="18"/>
+      <c r="TQ1" s="18"/>
+      <c r="TR1" s="18"/>
+      <c r="TS1" s="18"/>
+      <c r="TT1" s="18"/>
+      <c r="TU1" s="18"/>
+      <c r="TV1" s="18"/>
+      <c r="TW1" s="18"/>
+      <c r="TX1" s="18"/>
+      <c r="TY1" s="18"/>
+      <c r="TZ1" s="18"/>
+      <c r="UA1" s="18"/>
+      <c r="UB1" s="18"/>
+      <c r="UC1" s="18"/>
+      <c r="UD1" s="18"/>
+      <c r="UE1" s="18"/>
+      <c r="UF1" s="18"/>
+      <c r="UG1" s="18"/>
+      <c r="UH1" s="18"/>
+      <c r="UI1" s="18"/>
+      <c r="UJ1" s="18"/>
+      <c r="UK1" s="18"/>
+      <c r="UL1" s="18"/>
+      <c r="UM1" s="18"/>
+      <c r="UN1" s="18"/>
+      <c r="UO1" s="18"/>
+      <c r="UP1" s="18"/>
+      <c r="UQ1" s="18"/>
+      <c r="UR1" s="18"/>
+      <c r="US1" s="18"/>
+      <c r="UT1" s="18"/>
+      <c r="UU1" s="18"/>
+      <c r="UV1" s="18"/>
+      <c r="UW1" s="18"/>
+      <c r="UX1" s="18"/>
+      <c r="UY1" s="18"/>
+      <c r="UZ1" s="18"/>
+      <c r="VA1" s="18"/>
+      <c r="VB1" s="18"/>
+      <c r="VC1" s="18"/>
+      <c r="VD1" s="18"/>
+      <c r="VE1" s="18"/>
+      <c r="VF1" s="18"/>
+      <c r="VG1" s="18"/>
+      <c r="VH1" s="18"/>
+      <c r="VI1" s="18"/>
+      <c r="VJ1" s="18"/>
+      <c r="VK1" s="18"/>
+      <c r="VL1" s="18"/>
+      <c r="VM1" s="18"/>
+      <c r="VN1" s="18"/>
+      <c r="VO1" s="18"/>
+      <c r="VP1" s="18"/>
+      <c r="VQ1" s="18"/>
+      <c r="VR1" s="18"/>
+      <c r="VS1" s="18"/>
+      <c r="VT1" s="18"/>
+      <c r="VU1" s="18"/>
+      <c r="VV1" s="18"/>
+      <c r="VW1" s="18"/>
+      <c r="VX1" s="18"/>
+      <c r="VY1" s="18"/>
+      <c r="VZ1" s="18"/>
+      <c r="WA1" s="18"/>
+      <c r="WB1" s="18"/>
+      <c r="WC1" s="18"/>
+      <c r="WD1" s="18"/>
+      <c r="WE1" s="18"/>
+      <c r="WF1" s="18"/>
+      <c r="WG1" s="18"/>
+      <c r="WH1" s="18"/>
+      <c r="WI1" s="18"/>
+      <c r="WJ1" s="18"/>
+      <c r="WK1" s="18"/>
+      <c r="WL1" s="18"/>
+      <c r="WM1" s="18"/>
+      <c r="WN1" s="18"/>
+      <c r="WO1" s="18"/>
+      <c r="WP1" s="18"/>
+      <c r="WQ1" s="18"/>
+      <c r="WR1" s="18"/>
+      <c r="WS1" s="18"/>
+      <c r="WT1" s="18"/>
+      <c r="WU1" s="18"/>
+      <c r="WV1" s="18"/>
+      <c r="WW1" s="18"/>
+      <c r="WX1" s="18"/>
+      <c r="WY1" s="18"/>
+      <c r="WZ1" s="18"/>
+      <c r="XA1" s="18"/>
+      <c r="XB1" s="18"/>
+      <c r="XC1" s="18"/>
+      <c r="XD1" s="18"/>
+      <c r="XE1" s="18"/>
+      <c r="XF1" s="18"/>
+      <c r="XG1" s="18"/>
+      <c r="XH1" s="18"/>
+      <c r="XI1" s="18"/>
+      <c r="XJ1" s="18"/>
+      <c r="XK1" s="18"/>
+      <c r="XL1" s="18"/>
+      <c r="XM1" s="18"/>
+      <c r="XN1" s="18"/>
+      <c r="XO1" s="18"/>
+      <c r="XP1" s="18"/>
+      <c r="XQ1" s="18"/>
+      <c r="XR1" s="18"/>
+      <c r="XS1" s="18"/>
+      <c r="XT1" s="18"/>
+      <c r="XU1" s="18"/>
+      <c r="XV1" s="18"/>
+      <c r="XW1" s="18"/>
+      <c r="XX1" s="18"/>
+      <c r="XY1" s="18"/>
+      <c r="XZ1" s="18"/>
+      <c r="YA1" s="18"/>
+      <c r="YB1" s="18"/>
+      <c r="YC1" s="18"/>
+      <c r="YD1" s="18"/>
+      <c r="YE1" s="18"/>
+      <c r="YF1" s="18"/>
+      <c r="YG1" s="18"/>
+      <c r="YH1" s="18"/>
+      <c r="YI1" s="18"/>
+      <c r="YJ1" s="18"/>
+      <c r="YK1" s="18"/>
+      <c r="YL1" s="18"/>
+      <c r="YM1" s="18"/>
+      <c r="YN1" s="18"/>
+      <c r="YO1" s="18"/>
+      <c r="YP1" s="18"/>
+      <c r="YQ1" s="18"/>
+      <c r="YR1" s="18"/>
+      <c r="YS1" s="18"/>
+      <c r="YT1" s="18"/>
+      <c r="YU1" s="18"/>
+      <c r="YV1" s="18"/>
+      <c r="YW1" s="18"/>
+      <c r="YX1" s="18"/>
+      <c r="YY1" s="18"/>
+      <c r="YZ1" s="18"/>
+      <c r="ZA1" s="18"/>
+      <c r="ZB1" s="18"/>
+      <c r="ZC1" s="18"/>
+      <c r="ZD1" s="18"/>
+      <c r="ZE1" s="18"/>
+      <c r="ZF1" s="18"/>
+      <c r="ZG1" s="18"/>
+      <c r="ZH1" s="18"/>
+      <c r="ZI1" s="18"/>
+      <c r="ZJ1" s="18"/>
+      <c r="ZK1" s="18"/>
+      <c r="ZL1" s="18"/>
+      <c r="ZM1" s="18"/>
+      <c r="ZN1" s="18"/>
+      <c r="ZO1" s="18"/>
+      <c r="ZP1" s="18"/>
+      <c r="ZQ1" s="18"/>
+      <c r="ZR1" s="18"/>
+      <c r="ZS1" s="18"/>
+      <c r="ZT1" s="18"/>
+      <c r="ZU1" s="18"/>
+      <c r="ZV1" s="18"/>
+      <c r="ZW1" s="18"/>
+      <c r="ZX1" s="18"/>
+      <c r="ZY1" s="18"/>
+      <c r="ZZ1" s="18"/>
+      <c r="AAA1" s="18"/>
+      <c r="AAB1" s="18"/>
+      <c r="AAC1" s="18"/>
+      <c r="AAD1" s="18"/>
+      <c r="AAE1" s="18"/>
+      <c r="AAF1" s="18"/>
+      <c r="AAG1" s="18"/>
+      <c r="AAH1" s="18"/>
+      <c r="AAI1" s="18"/>
+      <c r="AAJ1" s="18"/>
+      <c r="AAK1" s="18"/>
+      <c r="AAL1" s="18"/>
+      <c r="AAM1" s="18"/>
+      <c r="AAN1" s="18"/>
+      <c r="AAO1" s="18"/>
+      <c r="AAP1" s="18"/>
+      <c r="AAQ1" s="18"/>
+      <c r="AAR1" s="18"/>
+      <c r="AAS1" s="18"/>
+      <c r="AAT1" s="18"/>
+      <c r="AAU1" s="18"/>
+      <c r="AAV1" s="18"/>
+      <c r="AAW1" s="18"/>
+      <c r="AAX1" s="18"/>
+      <c r="AAY1" s="18"/>
+      <c r="AAZ1" s="18"/>
+      <c r="ABA1" s="18"/>
+      <c r="ABB1" s="18"/>
+      <c r="ABC1" s="18"/>
+      <c r="ABD1" s="18"/>
+      <c r="ABE1" s="18"/>
+      <c r="ABF1" s="18"/>
+      <c r="ABG1" s="18"/>
+      <c r="ABH1" s="18"/>
+      <c r="ABI1" s="18"/>
+      <c r="ABJ1" s="18"/>
+      <c r="ABK1" s="18"/>
+      <c r="ABL1" s="18"/>
+      <c r="ABM1" s="18"/>
+      <c r="ABN1" s="18"/>
+      <c r="ABO1" s="18"/>
+      <c r="ABP1" s="18"/>
+      <c r="ABQ1" s="18"/>
+      <c r="ABR1" s="18"/>
+      <c r="ABS1" s="18"/>
+      <c r="ABT1" s="18"/>
+      <c r="ABU1" s="18"/>
+      <c r="ABV1" s="18"/>
+      <c r="ABW1" s="18"/>
+      <c r="ABX1" s="18"/>
+      <c r="ABY1" s="18"/>
+      <c r="ABZ1" s="18"/>
+      <c r="ACA1" s="18"/>
+      <c r="ACB1" s="18"/>
+      <c r="ACC1" s="18"/>
+      <c r="ACD1" s="18"/>
+      <c r="ACE1" s="18"/>
+      <c r="ACF1" s="18"/>
+      <c r="ACG1" s="18"/>
+      <c r="ACH1" s="18"/>
+      <c r="ACI1" s="18"/>
+      <c r="ACJ1" s="18"/>
+      <c r="ACK1" s="18"/>
+      <c r="ACL1" s="18"/>
+      <c r="ACM1" s="18"/>
+      <c r="ACN1" s="18"/>
+      <c r="ACO1" s="18"/>
+      <c r="ACP1" s="18"/>
+      <c r="ACQ1" s="18"/>
+      <c r="ACR1" s="18"/>
+      <c r="ACS1" s="18"/>
+      <c r="ACT1" s="18"/>
+      <c r="ACU1" s="18"/>
+      <c r="ACV1" s="18"/>
+      <c r="ACW1" s="18"/>
+      <c r="ACX1" s="18"/>
+      <c r="ACY1" s="18"/>
+      <c r="ACZ1" s="18"/>
+      <c r="ADA1" s="18"/>
+      <c r="ADB1" s="18"/>
+      <c r="ADC1" s="18"/>
+      <c r="ADD1" s="18"/>
+      <c r="ADE1" s="18"/>
+      <c r="ADF1" s="18"/>
+      <c r="ADG1" s="18"/>
+      <c r="ADH1" s="18"/>
+      <c r="ADI1" s="18"/>
+      <c r="ADJ1" s="18"/>
+      <c r="ADK1" s="18"/>
+      <c r="ADL1" s="18"/>
+      <c r="ADM1" s="18"/>
+      <c r="ADN1" s="18"/>
+      <c r="ADO1" s="18"/>
+      <c r="ADP1" s="18"/>
+      <c r="ADQ1" s="18"/>
+      <c r="ADR1" s="18"/>
+      <c r="ADS1" s="18"/>
+      <c r="ADT1" s="18"/>
+      <c r="ADU1" s="18"/>
+      <c r="ADV1" s="18"/>
+      <c r="ADW1" s="18"/>
+      <c r="ADX1" s="18"/>
+      <c r="ADY1" s="18"/>
+      <c r="ADZ1" s="18"/>
+      <c r="AEA1" s="18"/>
+      <c r="AEB1" s="18"/>
+      <c r="AEC1" s="18"/>
+      <c r="AED1" s="18"/>
+      <c r="AEE1" s="18"/>
+      <c r="AEF1" s="18"/>
+      <c r="AEG1" s="18"/>
+      <c r="AEH1" s="18"/>
+      <c r="AEI1" s="18"/>
+      <c r="AEJ1" s="18"/>
+      <c r="AEK1" s="18"/>
+      <c r="AEL1" s="18"/>
+      <c r="AEM1" s="18"/>
+      <c r="AEN1" s="18"/>
+      <c r="AEO1" s="18"/>
+      <c r="AEP1" s="18"/>
+      <c r="AEQ1" s="18"/>
+      <c r="AER1" s="18"/>
+      <c r="AES1" s="18"/>
+      <c r="AET1" s="18"/>
+      <c r="AEU1" s="18"/>
+      <c r="AEV1" s="18"/>
+      <c r="AEW1" s="18"/>
+      <c r="AEX1" s="18"/>
+      <c r="AEY1" s="18"/>
+      <c r="AEZ1" s="18"/>
+      <c r="AFA1" s="18"/>
+      <c r="AFB1" s="18"/>
+      <c r="AFC1" s="18"/>
+      <c r="AFD1" s="18"/>
+      <c r="AFE1" s="18"/>
+      <c r="AFF1" s="18"/>
+      <c r="AFG1" s="18"/>
+      <c r="AFH1" s="18"/>
+      <c r="AFI1" s="18"/>
+      <c r="AFJ1" s="18"/>
+      <c r="AFK1" s="18"/>
+      <c r="AFL1" s="18"/>
+      <c r="AFM1" s="18"/>
+      <c r="AFN1" s="18"/>
+      <c r="AFO1" s="18"/>
+      <c r="AFP1" s="18"/>
+      <c r="AFQ1" s="18"/>
+      <c r="AFR1" s="18"/>
+      <c r="AFS1" s="18"/>
+      <c r="AFT1" s="18"/>
+      <c r="AFU1" s="18"/>
+      <c r="AFV1" s="18"/>
+      <c r="AFW1" s="18"/>
+      <c r="AFX1" s="18"/>
+      <c r="AFY1" s="18"/>
+      <c r="AFZ1" s="18"/>
+      <c r="AGA1" s="18"/>
+      <c r="AGB1" s="18"/>
+      <c r="AGC1" s="18"/>
+      <c r="AGD1" s="18"/>
+      <c r="AGE1" s="18"/>
+      <c r="AGF1" s="18"/>
+      <c r="AGG1" s="18"/>
+      <c r="AGH1" s="18"/>
+      <c r="AGI1" s="18"/>
+      <c r="AGJ1" s="18"/>
+      <c r="AGK1" s="18"/>
+      <c r="AGL1" s="18"/>
+      <c r="AGM1" s="18"/>
+      <c r="AGN1" s="18"/>
+      <c r="AGO1" s="18"/>
+      <c r="AGP1" s="18"/>
+      <c r="AGQ1" s="18"/>
+      <c r="AGR1" s="18"/>
+      <c r="AGS1" s="18"/>
+      <c r="AGT1" s="18"/>
+      <c r="AGU1" s="18"/>
+      <c r="AGV1" s="18"/>
+      <c r="AGW1" s="18"/>
+      <c r="AGX1" s="18"/>
+      <c r="AGY1" s="18"/>
+      <c r="AGZ1" s="18"/>
+      <c r="AHA1" s="18"/>
+      <c r="AHB1" s="18"/>
+      <c r="AHC1" s="18"/>
+      <c r="AHD1" s="18"/>
+      <c r="AHE1" s="18"/>
+      <c r="AHF1" s="18"/>
+      <c r="AHG1" s="18"/>
+      <c r="AHH1" s="18"/>
+      <c r="AHI1" s="18"/>
+      <c r="AHJ1" s="18"/>
+      <c r="AHK1" s="18"/>
+      <c r="AHL1" s="18"/>
+      <c r="AHM1" s="18"/>
+      <c r="AHN1" s="18"/>
+      <c r="AHO1" s="18"/>
+      <c r="AHP1" s="18"/>
+      <c r="AHQ1" s="18"/>
+      <c r="AHR1" s="18"/>
+      <c r="AHS1" s="18"/>
+      <c r="AHT1" s="18"/>
+      <c r="AHU1" s="18"/>
+      <c r="AHV1" s="18"/>
+      <c r="AHW1" s="18"/>
+      <c r="AHX1" s="18"/>
+      <c r="AHY1" s="18"/>
+      <c r="AHZ1" s="18"/>
+      <c r="AIA1" s="18"/>
+      <c r="AIB1" s="18"/>
+      <c r="AIC1" s="18"/>
+      <c r="AID1" s="18"/>
+      <c r="AIE1" s="18"/>
+      <c r="AIF1" s="18"/>
+      <c r="AIG1" s="18"/>
+      <c r="AIH1" s="18"/>
+      <c r="AII1" s="18"/>
+      <c r="AIJ1" s="18"/>
+      <c r="AIK1" s="18"/>
+      <c r="AIL1" s="18"/>
+      <c r="AIM1" s="18"/>
+      <c r="AIN1" s="18"/>
+      <c r="AIO1" s="18"/>
+      <c r="AIP1" s="18"/>
+      <c r="AIQ1" s="18"/>
+      <c r="AIR1" s="18"/>
+      <c r="AIS1" s="18"/>
+      <c r="AIT1" s="18"/>
+      <c r="AIU1" s="18"/>
+      <c r="AIV1" s="18"/>
+      <c r="AIW1" s="18"/>
+      <c r="AIX1" s="18"/>
+      <c r="AIY1" s="18"/>
+      <c r="AIZ1" s="18"/>
+      <c r="AJA1" s="18"/>
+      <c r="AJB1" s="18"/>
+      <c r="AJC1" s="18"/>
+      <c r="AJD1" s="18"/>
+      <c r="AJE1" s="18"/>
+      <c r="AJF1" s="18"/>
+      <c r="AJG1" s="18"/>
+      <c r="AJH1" s="18"/>
+      <c r="AJI1" s="18"/>
+      <c r="AJJ1" s="18"/>
+      <c r="AJK1" s="18"/>
+      <c r="AJL1" s="18"/>
+      <c r="AJM1" s="18"/>
+      <c r="AJN1" s="18"/>
+      <c r="AJO1" s="18"/>
+      <c r="AJP1" s="18"/>
+      <c r="AJQ1" s="18"/>
+      <c r="AJR1" s="18"/>
+      <c r="AJS1" s="18"/>
+      <c r="AJT1" s="18"/>
+      <c r="AJU1" s="18"/>
+      <c r="AJV1" s="18"/>
+      <c r="AJW1" s="18"/>
+      <c r="AJX1" s="18"/>
+      <c r="AJY1" s="18"/>
+      <c r="AJZ1" s="18"/>
+      <c r="AKA1" s="18"/>
+      <c r="AKB1" s="18"/>
+      <c r="AKC1" s="18"/>
+      <c r="AKD1" s="18"/>
+      <c r="AKE1" s="18"/>
+      <c r="AKF1" s="18"/>
+      <c r="AKG1" s="18"/>
+      <c r="AKH1" s="18"/>
+      <c r="AKI1" s="18"/>
+      <c r="AKJ1" s="18"/>
+      <c r="AKK1" s="18"/>
+      <c r="AKL1" s="18"/>
+      <c r="AKM1" s="18"/>
+      <c r="AKN1" s="18"/>
+      <c r="AKO1" s="18"/>
+      <c r="AKP1" s="18"/>
+      <c r="AKQ1" s="18"/>
+      <c r="AKR1" s="18"/>
+      <c r="AKS1" s="18"/>
+      <c r="AKT1" s="18"/>
+      <c r="AKU1" s="18"/>
+      <c r="AKV1" s="18"/>
+      <c r="AKW1" s="18"/>
+      <c r="AKX1" s="18"/>
+      <c r="AKY1" s="18"/>
+      <c r="AKZ1" s="18"/>
+      <c r="ALA1" s="18"/>
+      <c r="ALB1" s="18"/>
+      <c r="ALC1" s="18"/>
+      <c r="ALD1" s="18"/>
+      <c r="ALE1" s="18"/>
+      <c r="ALF1" s="18"/>
+      <c r="ALG1" s="18"/>
+      <c r="ALH1" s="18"/>
+      <c r="ALI1" s="18"/>
+      <c r="ALJ1" s="18"/>
+      <c r="ALK1" s="18"/>
+      <c r="ALL1" s="18"/>
+      <c r="ALM1" s="18"/>
+      <c r="ALN1" s="18"/>
+      <c r="ALO1" s="18"/>
+      <c r="ALP1" s="18"/>
+      <c r="ALQ1" s="18"/>
+      <c r="ALR1" s="18"/>
+      <c r="ALS1" s="18"/>
+      <c r="ALT1" s="18"/>
+      <c r="ALU1" s="18"/>
+      <c r="ALV1" s="18"/>
+      <c r="ALW1" s="18"/>
+      <c r="ALX1" s="18"/>
+      <c r="ALY1" s="18"/>
+      <c r="ALZ1" s="18"/>
+      <c r="AMA1" s="18"/>
+      <c r="AMB1" s="18"/>
+      <c r="AMC1" s="18"/>
+      <c r="AMD1" s="18"/>
+      <c r="AME1" s="18"/>
+      <c r="AMF1" s="18"/>
+      <c r="AMG1" s="18"/>
+      <c r="AMH1" s="18"/>
+      <c r="AMI1" s="18"/>
+      <c r="AMJ1" s="18"/>
+      <c r="AMK1" s="18"/>
+      <c r="AML1" s="18"/>
+      <c r="AMM1" s="18"/>
+      <c r="AMN1" s="18"/>
+      <c r="AMO1" s="18"/>
+      <c r="AMP1" s="18"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20479,8 +20498,8 @@
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="26" t="s">
+    <row r="2" s="18" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20517,10 +20536,10 @@
         <v>72</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>40</v>
@@ -35893,10 +35912,10 @@
       <c r="XFD2"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -35917,7 +35936,7 @@
       <c r="H3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>4.58e-17</v>
       </c>
       <c r="J3" s="1">
@@ -35935,15 +35954,15 @@
       <c r="N3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -35962,10 +35981,10 @@
       <c r="H4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>1e-12</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>1e-13</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -35980,7 +35999,7 @@
       <c r="N4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -36013,14 +36032,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="16"/>
-    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
-    <col min="5" max="10" width="8.78333333333333" style="16"/>
-    <col min="11" max="1026" width="8.78333333333333" style="24"/>
-    <col min="1027" max="16384" width="9" style="24"/>
+    <col min="1" max="3" width="8.78333333333333" style="17"/>
+    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="17"/>
+    <col min="11" max="1026" width="8.78333333333333" style="25"/>
+    <col min="1027" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -36057,132 +36076,132 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMK1" s="24"/>
+      <c r="AMK1" s="25"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="17">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="25">
         <v>6</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -36199,7 +36218,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="8:8">
-      <c r="H12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -36245,7 +36264,7 @@
         <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -36265,7 +36284,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -36274,12 +36293,12 @@
         <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
@@ -36288,12 +36307,12 @@
         <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
@@ -36302,12 +36321,12 @@
         <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>105</v>
@@ -36316,12 +36335,12 @@
         <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>108</v>
@@ -36330,12 +36349,12 @@
         <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>111</v>
@@ -36344,12 +36363,12 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>95</v>
@@ -36358,12 +36377,12 @@
         <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>102</v>
@@ -36372,7 +36391,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -36420,16 +36439,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36449,104 +36468,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="24">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>130</v>
+      <c r="G2" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="24">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>130</v>
+      <c r="G3" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="24">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>130</v>
+      <c r="G4" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>130</v>
+      <c r="G5" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="24">
         <v>0.001</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>130</v>
+      <c r="G6" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="24">
         <v>0.002</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>130</v>
+      <c r="G7" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Initial density</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -474,7 +471,7 @@
     <t>e / density_c</t>
   </si>
   <si>
-    <t>Flux</t>
+    <t>Flux bounds</t>
   </si>
   <si>
     <t>Submodel</t>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
@@ -797,11 +797,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -851,22 +851,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,48 +865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -933,6 +880,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -947,16 +909,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,9 +955,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,6 +964,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,7 +1013,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1049,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,13 +1121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1145,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,91 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,17 +1216,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,40 +1240,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1313,139 +1283,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1494,9 +1494,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1527,6 +1524,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2216,7 +2216,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -2273,7 +2273,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
@@ -2296,24 +2296,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2333,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2346,22 +2346,22 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2371,22 +2371,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>71</v>
@@ -2409,105 +2409,105 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="21">
+      <c r="G3" s="20">
         <v>0</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="21">
+        <v>150</v>
+      </c>
+      <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="F4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="21">
+        <v>153</v>
+      </c>
+      <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="F5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="F6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D6">
@@ -2557,16 +2557,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
@@ -2589,19 +2589,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2610,19 +2610,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2631,19 +2631,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2652,19 +2652,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2710,100 +2710,81 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2837,13 +2818,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2863,22 +2844,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2916,13 +2897,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>71</v>
@@ -2951,16 +2932,16 @@
         <v>181</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="14">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>182</v>
@@ -2974,16 +2955,16 @@
         <v>184</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="14">
         <v>-4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -2994,16 +2975,16 @@
         <v>186</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -3014,16 +2995,16 @@
         <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="14">
         <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3063,10 +3044,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>189</v>
@@ -3101,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>192</v>
@@ -3146,7 +3127,7 @@
         <v>0.0003</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -3188,12 +3169,12 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
@@ -3204,7 +3185,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -3261,7 +3242,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
@@ -3337,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>189</v>
@@ -3346,7 +3327,7 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -3535,7 +3516,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3565,7 +3546,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>189</v>
@@ -3574,7 +3555,7 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -3683,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>219</v>
@@ -3818,7 +3799,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>235</v>
@@ -4019,12 +4000,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="17"/>
-    <col min="8" max="1026" width="8.78333333333333" style="25"/>
-    <col min="1027" max="16384" width="9" style="25"/>
+    <col min="1" max="7" width="8.78333333333333" style="16"/>
+    <col min="8" max="1026" width="8.78333333333333" style="24"/>
+    <col min="1027" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:1025">
+    <row r="1" s="17" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4049,30 +4030,30 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMI1" s="25"/>
-      <c r="AMJ1" s="25"/>
-      <c r="AMK1" s="25"/>
+      <c r="AMI1" s="24"/>
+      <c r="AMJ1" s="24"/>
+      <c r="AMK1" s="24"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="28"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4096,1055 +4077,1055 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="8" width="8.78333333333333" style="17"/>
-    <col min="9" max="9" width="8.78333333333333" style="25"/>
-    <col min="10" max="10" width="9.375" style="25"/>
-    <col min="11" max="1033" width="8.78333333333333" style="25"/>
-    <col min="1034" max="16384" width="9" style="25"/>
+    <col min="1" max="8" width="8.78333333333333" style="16"/>
+    <col min="9" max="9" width="8.78333333333333" style="24"/>
+    <col min="10" max="10" width="9.375" style="24"/>
+    <col min="11" max="1035" width="8.78333333333333" style="24"/>
+    <col min="1036" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="16" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
-      <c r="EF1" s="18"/>
-      <c r="EG1" s="18"/>
-      <c r="EH1" s="18"/>
-      <c r="EI1" s="18"/>
-      <c r="EJ1" s="18"/>
-      <c r="EK1" s="18"/>
-      <c r="EL1" s="18"/>
-      <c r="EM1" s="18"/>
-      <c r="EN1" s="18"/>
-      <c r="EO1" s="18"/>
-      <c r="EP1" s="18"/>
-      <c r="EQ1" s="18"/>
-      <c r="ER1" s="18"/>
-      <c r="ES1" s="18"/>
-      <c r="ET1" s="18"/>
-      <c r="EU1" s="18"/>
-      <c r="EV1" s="18"/>
-      <c r="EW1" s="18"/>
-      <c r="EX1" s="18"/>
-      <c r="EY1" s="18"/>
-      <c r="EZ1" s="18"/>
-      <c r="FA1" s="18"/>
-      <c r="FB1" s="18"/>
-      <c r="FC1" s="18"/>
-      <c r="FD1" s="18"/>
-      <c r="FE1" s="18"/>
-      <c r="FF1" s="18"/>
-      <c r="FG1" s="18"/>
-      <c r="FH1" s="18"/>
-      <c r="FI1" s="18"/>
-      <c r="FJ1" s="18"/>
-      <c r="FK1" s="18"/>
-      <c r="FL1" s="18"/>
-      <c r="FM1" s="18"/>
-      <c r="FN1" s="18"/>
-      <c r="FO1" s="18"/>
-      <c r="FP1" s="18"/>
-      <c r="FQ1" s="18"/>
-      <c r="FR1" s="18"/>
-      <c r="FS1" s="18"/>
-      <c r="FT1" s="18"/>
-      <c r="FU1" s="18"/>
-      <c r="FV1" s="18"/>
-      <c r="FW1" s="18"/>
-      <c r="FX1" s="18"/>
-      <c r="FY1" s="18"/>
-      <c r="FZ1" s="18"/>
-      <c r="GA1" s="18"/>
-      <c r="GB1" s="18"/>
-      <c r="GC1" s="18"/>
-      <c r="GD1" s="18"/>
-      <c r="GE1" s="18"/>
-      <c r="GF1" s="18"/>
-      <c r="GG1" s="18"/>
-      <c r="GH1" s="18"/>
-      <c r="GI1" s="18"/>
-      <c r="GJ1" s="18"/>
-      <c r="GK1" s="18"/>
-      <c r="GL1" s="18"/>
-      <c r="GM1" s="18"/>
-      <c r="GN1" s="18"/>
-      <c r="GO1" s="18"/>
-      <c r="GP1" s="18"/>
-      <c r="GQ1" s="18"/>
-      <c r="GR1" s="18"/>
-      <c r="GS1" s="18"/>
-      <c r="GT1" s="18"/>
-      <c r="GU1" s="18"/>
-      <c r="GV1" s="18"/>
-      <c r="GW1" s="18"/>
-      <c r="GX1" s="18"/>
-      <c r="GY1" s="18"/>
-      <c r="GZ1" s="18"/>
-      <c r="HA1" s="18"/>
-      <c r="HB1" s="18"/>
-      <c r="HC1" s="18"/>
-      <c r="HD1" s="18"/>
-      <c r="HE1" s="18"/>
-      <c r="HF1" s="18"/>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
-      <c r="HK1" s="18"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="18"/>
-      <c r="HN1" s="18"/>
-      <c r="HO1" s="18"/>
-      <c r="HP1" s="18"/>
-      <c r="HQ1" s="18"/>
-      <c r="HR1" s="18"/>
-      <c r="HS1" s="18"/>
-      <c r="HT1" s="18"/>
-      <c r="HU1" s="18"/>
-      <c r="HV1" s="18"/>
-      <c r="HW1" s="18"/>
-      <c r="HX1" s="18"/>
-      <c r="HY1" s="18"/>
-      <c r="HZ1" s="18"/>
-      <c r="IA1" s="18"/>
-      <c r="IB1" s="18"/>
-      <c r="IC1" s="18"/>
-      <c r="ID1" s="18"/>
-      <c r="IE1" s="18"/>
-      <c r="IF1" s="18"/>
-      <c r="IG1" s="18"/>
-      <c r="IH1" s="18"/>
-      <c r="II1" s="18"/>
-      <c r="IJ1" s="18"/>
-      <c r="IK1" s="18"/>
-      <c r="IL1" s="18"/>
-      <c r="IM1" s="18"/>
-      <c r="IN1" s="18"/>
-      <c r="IO1" s="18"/>
-      <c r="IP1" s="18"/>
-      <c r="IQ1" s="18"/>
-      <c r="IR1" s="18"/>
-      <c r="IS1" s="18"/>
-      <c r="IT1" s="18"/>
-      <c r="IU1" s="18"/>
-      <c r="IV1" s="18"/>
-      <c r="IW1" s="18"/>
-      <c r="IX1" s="18"/>
-      <c r="IY1" s="18"/>
-      <c r="IZ1" s="18"/>
-      <c r="JA1" s="18"/>
-      <c r="JB1" s="18"/>
-      <c r="JC1" s="18"/>
-      <c r="JD1" s="18"/>
-      <c r="JE1" s="18"/>
-      <c r="JF1" s="18"/>
-      <c r="JG1" s="18"/>
-      <c r="JH1" s="18"/>
-      <c r="JI1" s="18"/>
-      <c r="JJ1" s="18"/>
-      <c r="JK1" s="18"/>
-      <c r="JL1" s="18"/>
-      <c r="JM1" s="18"/>
-      <c r="JN1" s="18"/>
-      <c r="JO1" s="18"/>
-      <c r="JP1" s="18"/>
-      <c r="JQ1" s="18"/>
-      <c r="JR1" s="18"/>
-      <c r="JS1" s="18"/>
-      <c r="JT1" s="18"/>
-      <c r="JU1" s="18"/>
-      <c r="JV1" s="18"/>
-      <c r="JW1" s="18"/>
-      <c r="JX1" s="18"/>
-      <c r="JY1" s="18"/>
-      <c r="JZ1" s="18"/>
-      <c r="KA1" s="18"/>
-      <c r="KB1" s="18"/>
-      <c r="KC1" s="18"/>
-      <c r="KD1" s="18"/>
-      <c r="KE1" s="18"/>
-      <c r="KF1" s="18"/>
-      <c r="KG1" s="18"/>
-      <c r="KH1" s="18"/>
-      <c r="KI1" s="18"/>
-      <c r="KJ1" s="18"/>
-      <c r="KK1" s="18"/>
-      <c r="KL1" s="18"/>
-      <c r="KM1" s="18"/>
-      <c r="KN1" s="18"/>
-      <c r="KO1" s="18"/>
-      <c r="KP1" s="18"/>
-      <c r="KQ1" s="18"/>
-      <c r="KR1" s="18"/>
-      <c r="KS1" s="18"/>
-      <c r="KT1" s="18"/>
-      <c r="KU1" s="18"/>
-      <c r="KV1" s="18"/>
-      <c r="KW1" s="18"/>
-      <c r="KX1" s="18"/>
-      <c r="KY1" s="18"/>
-      <c r="KZ1" s="18"/>
-      <c r="LA1" s="18"/>
-      <c r="LB1" s="18"/>
-      <c r="LC1" s="18"/>
-      <c r="LD1" s="18"/>
-      <c r="LE1" s="18"/>
-      <c r="LF1" s="18"/>
-      <c r="LG1" s="18"/>
-      <c r="LH1" s="18"/>
-      <c r="LI1" s="18"/>
-      <c r="LJ1" s="18"/>
-      <c r="LK1" s="18"/>
-      <c r="LL1" s="18"/>
-      <c r="LM1" s="18"/>
-      <c r="LN1" s="18"/>
-      <c r="LO1" s="18"/>
-      <c r="LP1" s="18"/>
-      <c r="LQ1" s="18"/>
-      <c r="LR1" s="18"/>
-      <c r="LS1" s="18"/>
-      <c r="LT1" s="18"/>
-      <c r="LU1" s="18"/>
-      <c r="LV1" s="18"/>
-      <c r="LW1" s="18"/>
-      <c r="LX1" s="18"/>
-      <c r="LY1" s="18"/>
-      <c r="LZ1" s="18"/>
-      <c r="MA1" s="18"/>
-      <c r="MB1" s="18"/>
-      <c r="MC1" s="18"/>
-      <c r="MD1" s="18"/>
-      <c r="ME1" s="18"/>
-      <c r="MF1" s="18"/>
-      <c r="MG1" s="18"/>
-      <c r="MH1" s="18"/>
-      <c r="MI1" s="18"/>
-      <c r="MJ1" s="18"/>
-      <c r="MK1" s="18"/>
-      <c r="ML1" s="18"/>
-      <c r="MM1" s="18"/>
-      <c r="MN1" s="18"/>
-      <c r="MO1" s="18"/>
-      <c r="MP1" s="18"/>
-      <c r="MQ1" s="18"/>
-      <c r="MR1" s="18"/>
-      <c r="MS1" s="18"/>
-      <c r="MT1" s="18"/>
-      <c r="MU1" s="18"/>
-      <c r="MV1" s="18"/>
-      <c r="MW1" s="18"/>
-      <c r="MX1" s="18"/>
-      <c r="MY1" s="18"/>
-      <c r="MZ1" s="18"/>
-      <c r="NA1" s="18"/>
-      <c r="NB1" s="18"/>
-      <c r="NC1" s="18"/>
-      <c r="ND1" s="18"/>
-      <c r="NE1" s="18"/>
-      <c r="NF1" s="18"/>
-      <c r="NG1" s="18"/>
-      <c r="NH1" s="18"/>
-      <c r="NI1" s="18"/>
-      <c r="NJ1" s="18"/>
-      <c r="NK1" s="18"/>
-      <c r="NL1" s="18"/>
-      <c r="NM1" s="18"/>
-      <c r="NN1" s="18"/>
-      <c r="NO1" s="18"/>
-      <c r="NP1" s="18"/>
-      <c r="NQ1" s="18"/>
-      <c r="NR1" s="18"/>
-      <c r="NS1" s="18"/>
-      <c r="NT1" s="18"/>
-      <c r="NU1" s="18"/>
-      <c r="NV1" s="18"/>
-      <c r="NW1" s="18"/>
-      <c r="NX1" s="18"/>
-      <c r="NY1" s="18"/>
-      <c r="NZ1" s="18"/>
-      <c r="OA1" s="18"/>
-      <c r="OB1" s="18"/>
-      <c r="OC1" s="18"/>
-      <c r="OD1" s="18"/>
-      <c r="OE1" s="18"/>
-      <c r="OF1" s="18"/>
-      <c r="OG1" s="18"/>
-      <c r="OH1" s="18"/>
-      <c r="OI1" s="18"/>
-      <c r="OJ1" s="18"/>
-      <c r="OK1" s="18"/>
-      <c r="OL1" s="18"/>
-      <c r="OM1" s="18"/>
-      <c r="ON1" s="18"/>
-      <c r="OO1" s="18"/>
-      <c r="OP1" s="18"/>
-      <c r="OQ1" s="18"/>
-      <c r="OR1" s="18"/>
-      <c r="OS1" s="18"/>
-      <c r="OT1" s="18"/>
-      <c r="OU1" s="18"/>
-      <c r="OV1" s="18"/>
-      <c r="OW1" s="18"/>
-      <c r="OX1" s="18"/>
-      <c r="OY1" s="18"/>
-      <c r="OZ1" s="18"/>
-      <c r="PA1" s="18"/>
-      <c r="PB1" s="18"/>
-      <c r="PC1" s="18"/>
-      <c r="PD1" s="18"/>
-      <c r="PE1" s="18"/>
-      <c r="PF1" s="18"/>
-      <c r="PG1" s="18"/>
-      <c r="PH1" s="18"/>
-      <c r="PI1" s="18"/>
-      <c r="PJ1" s="18"/>
-      <c r="PK1" s="18"/>
-      <c r="PL1" s="18"/>
-      <c r="PM1" s="18"/>
-      <c r="PN1" s="18"/>
-      <c r="PO1" s="18"/>
-      <c r="PP1" s="18"/>
-      <c r="PQ1" s="18"/>
-      <c r="PR1" s="18"/>
-      <c r="PS1" s="18"/>
-      <c r="PT1" s="18"/>
-      <c r="PU1" s="18"/>
-      <c r="PV1" s="18"/>
-      <c r="PW1" s="18"/>
-      <c r="PX1" s="18"/>
-      <c r="PY1" s="18"/>
-      <c r="PZ1" s="18"/>
-      <c r="QA1" s="18"/>
-      <c r="QB1" s="18"/>
-      <c r="QC1" s="18"/>
-      <c r="QD1" s="18"/>
-      <c r="QE1" s="18"/>
-      <c r="QF1" s="18"/>
-      <c r="QG1" s="18"/>
-      <c r="QH1" s="18"/>
-      <c r="QI1" s="18"/>
-      <c r="QJ1" s="18"/>
-      <c r="QK1" s="18"/>
-      <c r="QL1" s="18"/>
-      <c r="QM1" s="18"/>
-      <c r="QN1" s="18"/>
-      <c r="QO1" s="18"/>
-      <c r="QP1" s="18"/>
-      <c r="QQ1" s="18"/>
-      <c r="QR1" s="18"/>
-      <c r="QS1" s="18"/>
-      <c r="QT1" s="18"/>
-      <c r="QU1" s="18"/>
-      <c r="QV1" s="18"/>
-      <c r="QW1" s="18"/>
-      <c r="QX1" s="18"/>
-      <c r="QY1" s="18"/>
-      <c r="QZ1" s="18"/>
-      <c r="RA1" s="18"/>
-      <c r="RB1" s="18"/>
-      <c r="RC1" s="18"/>
-      <c r="RD1" s="18"/>
-      <c r="RE1" s="18"/>
-      <c r="RF1" s="18"/>
-      <c r="RG1" s="18"/>
-      <c r="RH1" s="18"/>
-      <c r="RI1" s="18"/>
-      <c r="RJ1" s="18"/>
-      <c r="RK1" s="18"/>
-      <c r="RL1" s="18"/>
-      <c r="RM1" s="18"/>
-      <c r="RN1" s="18"/>
-      <c r="RO1" s="18"/>
-      <c r="RP1" s="18"/>
-      <c r="RQ1" s="18"/>
-      <c r="RR1" s="18"/>
-      <c r="RS1" s="18"/>
-      <c r="RT1" s="18"/>
-      <c r="RU1" s="18"/>
-      <c r="RV1" s="18"/>
-      <c r="RW1" s="18"/>
-      <c r="RX1" s="18"/>
-      <c r="RY1" s="18"/>
-      <c r="RZ1" s="18"/>
-      <c r="SA1" s="18"/>
-      <c r="SB1" s="18"/>
-      <c r="SC1" s="18"/>
-      <c r="SD1" s="18"/>
-      <c r="SE1" s="18"/>
-      <c r="SF1" s="18"/>
-      <c r="SG1" s="18"/>
-      <c r="SH1" s="18"/>
-      <c r="SI1" s="18"/>
-      <c r="SJ1" s="18"/>
-      <c r="SK1" s="18"/>
-      <c r="SL1" s="18"/>
-      <c r="SM1" s="18"/>
-      <c r="SN1" s="18"/>
-      <c r="SO1" s="18"/>
-      <c r="SP1" s="18"/>
-      <c r="SQ1" s="18"/>
-      <c r="SR1" s="18"/>
-      <c r="SS1" s="18"/>
-      <c r="ST1" s="18"/>
-      <c r="SU1" s="18"/>
-      <c r="SV1" s="18"/>
-      <c r="SW1" s="18"/>
-      <c r="SX1" s="18"/>
-      <c r="SY1" s="18"/>
-      <c r="SZ1" s="18"/>
-      <c r="TA1" s="18"/>
-      <c r="TB1" s="18"/>
-      <c r="TC1" s="18"/>
-      <c r="TD1" s="18"/>
-      <c r="TE1" s="18"/>
-      <c r="TF1" s="18"/>
-      <c r="TG1" s="18"/>
-      <c r="TH1" s="18"/>
-      <c r="TI1" s="18"/>
-      <c r="TJ1" s="18"/>
-      <c r="TK1" s="18"/>
-      <c r="TL1" s="18"/>
-      <c r="TM1" s="18"/>
-      <c r="TN1" s="18"/>
-      <c r="TO1" s="18"/>
-      <c r="TP1" s="18"/>
-      <c r="TQ1" s="18"/>
-      <c r="TR1" s="18"/>
-      <c r="TS1" s="18"/>
-      <c r="TT1" s="18"/>
-      <c r="TU1" s="18"/>
-      <c r="TV1" s="18"/>
-      <c r="TW1" s="18"/>
-      <c r="TX1" s="18"/>
-      <c r="TY1" s="18"/>
-      <c r="TZ1" s="18"/>
-      <c r="UA1" s="18"/>
-      <c r="UB1" s="18"/>
-      <c r="UC1" s="18"/>
-      <c r="UD1" s="18"/>
-      <c r="UE1" s="18"/>
-      <c r="UF1" s="18"/>
-      <c r="UG1" s="18"/>
-      <c r="UH1" s="18"/>
-      <c r="UI1" s="18"/>
-      <c r="UJ1" s="18"/>
-      <c r="UK1" s="18"/>
-      <c r="UL1" s="18"/>
-      <c r="UM1" s="18"/>
-      <c r="UN1" s="18"/>
-      <c r="UO1" s="18"/>
-      <c r="UP1" s="18"/>
-      <c r="UQ1" s="18"/>
-      <c r="UR1" s="18"/>
-      <c r="US1" s="18"/>
-      <c r="UT1" s="18"/>
-      <c r="UU1" s="18"/>
-      <c r="UV1" s="18"/>
-      <c r="UW1" s="18"/>
-      <c r="UX1" s="18"/>
-      <c r="UY1" s="18"/>
-      <c r="UZ1" s="18"/>
-      <c r="VA1" s="18"/>
-      <c r="VB1" s="18"/>
-      <c r="VC1" s="18"/>
-      <c r="VD1" s="18"/>
-      <c r="VE1" s="18"/>
-      <c r="VF1" s="18"/>
-      <c r="VG1" s="18"/>
-      <c r="VH1" s="18"/>
-      <c r="VI1" s="18"/>
-      <c r="VJ1" s="18"/>
-      <c r="VK1" s="18"/>
-      <c r="VL1" s="18"/>
-      <c r="VM1" s="18"/>
-      <c r="VN1" s="18"/>
-      <c r="VO1" s="18"/>
-      <c r="VP1" s="18"/>
-      <c r="VQ1" s="18"/>
-      <c r="VR1" s="18"/>
-      <c r="VS1" s="18"/>
-      <c r="VT1" s="18"/>
-      <c r="VU1" s="18"/>
-      <c r="VV1" s="18"/>
-      <c r="VW1" s="18"/>
-      <c r="VX1" s="18"/>
-      <c r="VY1" s="18"/>
-      <c r="VZ1" s="18"/>
-      <c r="WA1" s="18"/>
-      <c r="WB1" s="18"/>
-      <c r="WC1" s="18"/>
-      <c r="WD1" s="18"/>
-      <c r="WE1" s="18"/>
-      <c r="WF1" s="18"/>
-      <c r="WG1" s="18"/>
-      <c r="WH1" s="18"/>
-      <c r="WI1" s="18"/>
-      <c r="WJ1" s="18"/>
-      <c r="WK1" s="18"/>
-      <c r="WL1" s="18"/>
-      <c r="WM1" s="18"/>
-      <c r="WN1" s="18"/>
-      <c r="WO1" s="18"/>
-      <c r="WP1" s="18"/>
-      <c r="WQ1" s="18"/>
-      <c r="WR1" s="18"/>
-      <c r="WS1" s="18"/>
-      <c r="WT1" s="18"/>
-      <c r="WU1" s="18"/>
-      <c r="WV1" s="18"/>
-      <c r="WW1" s="18"/>
-      <c r="WX1" s="18"/>
-      <c r="WY1" s="18"/>
-      <c r="WZ1" s="18"/>
-      <c r="XA1" s="18"/>
-      <c r="XB1" s="18"/>
-      <c r="XC1" s="18"/>
-      <c r="XD1" s="18"/>
-      <c r="XE1" s="18"/>
-      <c r="XF1" s="18"/>
-      <c r="XG1" s="18"/>
-      <c r="XH1" s="18"/>
-      <c r="XI1" s="18"/>
-      <c r="XJ1" s="18"/>
-      <c r="XK1" s="18"/>
-      <c r="XL1" s="18"/>
-      <c r="XM1" s="18"/>
-      <c r="XN1" s="18"/>
-      <c r="XO1" s="18"/>
-      <c r="XP1" s="18"/>
-      <c r="XQ1" s="18"/>
-      <c r="XR1" s="18"/>
-      <c r="XS1" s="18"/>
-      <c r="XT1" s="18"/>
-      <c r="XU1" s="18"/>
-      <c r="XV1" s="18"/>
-      <c r="XW1" s="18"/>
-      <c r="XX1" s="18"/>
-      <c r="XY1" s="18"/>
-      <c r="XZ1" s="18"/>
-      <c r="YA1" s="18"/>
-      <c r="YB1" s="18"/>
-      <c r="YC1" s="18"/>
-      <c r="YD1" s="18"/>
-      <c r="YE1" s="18"/>
-      <c r="YF1" s="18"/>
-      <c r="YG1" s="18"/>
-      <c r="YH1" s="18"/>
-      <c r="YI1" s="18"/>
-      <c r="YJ1" s="18"/>
-      <c r="YK1" s="18"/>
-      <c r="YL1" s="18"/>
-      <c r="YM1" s="18"/>
-      <c r="YN1" s="18"/>
-      <c r="YO1" s="18"/>
-      <c r="YP1" s="18"/>
-      <c r="YQ1" s="18"/>
-      <c r="YR1" s="18"/>
-      <c r="YS1" s="18"/>
-      <c r="YT1" s="18"/>
-      <c r="YU1" s="18"/>
-      <c r="YV1" s="18"/>
-      <c r="YW1" s="18"/>
-      <c r="YX1" s="18"/>
-      <c r="YY1" s="18"/>
-      <c r="YZ1" s="18"/>
-      <c r="ZA1" s="18"/>
-      <c r="ZB1" s="18"/>
-      <c r="ZC1" s="18"/>
-      <c r="ZD1" s="18"/>
-      <c r="ZE1" s="18"/>
-      <c r="ZF1" s="18"/>
-      <c r="ZG1" s="18"/>
-      <c r="ZH1" s="18"/>
-      <c r="ZI1" s="18"/>
-      <c r="ZJ1" s="18"/>
-      <c r="ZK1" s="18"/>
-      <c r="ZL1" s="18"/>
-      <c r="ZM1" s="18"/>
-      <c r="ZN1" s="18"/>
-      <c r="ZO1" s="18"/>
-      <c r="ZP1" s="18"/>
-      <c r="ZQ1" s="18"/>
-      <c r="ZR1" s="18"/>
-      <c r="ZS1" s="18"/>
-      <c r="ZT1" s="18"/>
-      <c r="ZU1" s="18"/>
-      <c r="ZV1" s="18"/>
-      <c r="ZW1" s="18"/>
-      <c r="ZX1" s="18"/>
-      <c r="ZY1" s="18"/>
-      <c r="ZZ1" s="18"/>
-      <c r="AAA1" s="18"/>
-      <c r="AAB1" s="18"/>
-      <c r="AAC1" s="18"/>
-      <c r="AAD1" s="18"/>
-      <c r="AAE1" s="18"/>
-      <c r="AAF1" s="18"/>
-      <c r="AAG1" s="18"/>
-      <c r="AAH1" s="18"/>
-      <c r="AAI1" s="18"/>
-      <c r="AAJ1" s="18"/>
-      <c r="AAK1" s="18"/>
-      <c r="AAL1" s="18"/>
-      <c r="AAM1" s="18"/>
-      <c r="AAN1" s="18"/>
-      <c r="AAO1" s="18"/>
-      <c r="AAP1" s="18"/>
-      <c r="AAQ1" s="18"/>
-      <c r="AAR1" s="18"/>
-      <c r="AAS1" s="18"/>
-      <c r="AAT1" s="18"/>
-      <c r="AAU1" s="18"/>
-      <c r="AAV1" s="18"/>
-      <c r="AAW1" s="18"/>
-      <c r="AAX1" s="18"/>
-      <c r="AAY1" s="18"/>
-      <c r="AAZ1" s="18"/>
-      <c r="ABA1" s="18"/>
-      <c r="ABB1" s="18"/>
-      <c r="ABC1" s="18"/>
-      <c r="ABD1" s="18"/>
-      <c r="ABE1" s="18"/>
-      <c r="ABF1" s="18"/>
-      <c r="ABG1" s="18"/>
-      <c r="ABH1" s="18"/>
-      <c r="ABI1" s="18"/>
-      <c r="ABJ1" s="18"/>
-      <c r="ABK1" s="18"/>
-      <c r="ABL1" s="18"/>
-      <c r="ABM1" s="18"/>
-      <c r="ABN1" s="18"/>
-      <c r="ABO1" s="18"/>
-      <c r="ABP1" s="18"/>
-      <c r="ABQ1" s="18"/>
-      <c r="ABR1" s="18"/>
-      <c r="ABS1" s="18"/>
-      <c r="ABT1" s="18"/>
-      <c r="ABU1" s="18"/>
-      <c r="ABV1" s="18"/>
-      <c r="ABW1" s="18"/>
-      <c r="ABX1" s="18"/>
-      <c r="ABY1" s="18"/>
-      <c r="ABZ1" s="18"/>
-      <c r="ACA1" s="18"/>
-      <c r="ACB1" s="18"/>
-      <c r="ACC1" s="18"/>
-      <c r="ACD1" s="18"/>
-      <c r="ACE1" s="18"/>
-      <c r="ACF1" s="18"/>
-      <c r="ACG1" s="18"/>
-      <c r="ACH1" s="18"/>
-      <c r="ACI1" s="18"/>
-      <c r="ACJ1" s="18"/>
-      <c r="ACK1" s="18"/>
-      <c r="ACL1" s="18"/>
-      <c r="ACM1" s="18"/>
-      <c r="ACN1" s="18"/>
-      <c r="ACO1" s="18"/>
-      <c r="ACP1" s="18"/>
-      <c r="ACQ1" s="18"/>
-      <c r="ACR1" s="18"/>
-      <c r="ACS1" s="18"/>
-      <c r="ACT1" s="18"/>
-      <c r="ACU1" s="18"/>
-      <c r="ACV1" s="18"/>
-      <c r="ACW1" s="18"/>
-      <c r="ACX1" s="18"/>
-      <c r="ACY1" s="18"/>
-      <c r="ACZ1" s="18"/>
-      <c r="ADA1" s="18"/>
-      <c r="ADB1" s="18"/>
-      <c r="ADC1" s="18"/>
-      <c r="ADD1" s="18"/>
-      <c r="ADE1" s="18"/>
-      <c r="ADF1" s="18"/>
-      <c r="ADG1" s="18"/>
-      <c r="ADH1" s="18"/>
-      <c r="ADI1" s="18"/>
-      <c r="ADJ1" s="18"/>
-      <c r="ADK1" s="18"/>
-      <c r="ADL1" s="18"/>
-      <c r="ADM1" s="18"/>
-      <c r="ADN1" s="18"/>
-      <c r="ADO1" s="18"/>
-      <c r="ADP1" s="18"/>
-      <c r="ADQ1" s="18"/>
-      <c r="ADR1" s="18"/>
-      <c r="ADS1" s="18"/>
-      <c r="ADT1" s="18"/>
-      <c r="ADU1" s="18"/>
-      <c r="ADV1" s="18"/>
-      <c r="ADW1" s="18"/>
-      <c r="ADX1" s="18"/>
-      <c r="ADY1" s="18"/>
-      <c r="ADZ1" s="18"/>
-      <c r="AEA1" s="18"/>
-      <c r="AEB1" s="18"/>
-      <c r="AEC1" s="18"/>
-      <c r="AED1" s="18"/>
-      <c r="AEE1" s="18"/>
-      <c r="AEF1" s="18"/>
-      <c r="AEG1" s="18"/>
-      <c r="AEH1" s="18"/>
-      <c r="AEI1" s="18"/>
-      <c r="AEJ1" s="18"/>
-      <c r="AEK1" s="18"/>
-      <c r="AEL1" s="18"/>
-      <c r="AEM1" s="18"/>
-      <c r="AEN1" s="18"/>
-      <c r="AEO1" s="18"/>
-      <c r="AEP1" s="18"/>
-      <c r="AEQ1" s="18"/>
-      <c r="AER1" s="18"/>
-      <c r="AES1" s="18"/>
-      <c r="AET1" s="18"/>
-      <c r="AEU1" s="18"/>
-      <c r="AEV1" s="18"/>
-      <c r="AEW1" s="18"/>
-      <c r="AEX1" s="18"/>
-      <c r="AEY1" s="18"/>
-      <c r="AEZ1" s="18"/>
-      <c r="AFA1" s="18"/>
-      <c r="AFB1" s="18"/>
-      <c r="AFC1" s="18"/>
-      <c r="AFD1" s="18"/>
-      <c r="AFE1" s="18"/>
-      <c r="AFF1" s="18"/>
-      <c r="AFG1" s="18"/>
-      <c r="AFH1" s="18"/>
-      <c r="AFI1" s="18"/>
-      <c r="AFJ1" s="18"/>
-      <c r="AFK1" s="18"/>
-      <c r="AFL1" s="18"/>
-      <c r="AFM1" s="18"/>
-      <c r="AFN1" s="18"/>
-      <c r="AFO1" s="18"/>
-      <c r="AFP1" s="18"/>
-      <c r="AFQ1" s="18"/>
-      <c r="AFR1" s="18"/>
-      <c r="AFS1" s="18"/>
-      <c r="AFT1" s="18"/>
-      <c r="AFU1" s="18"/>
-      <c r="AFV1" s="18"/>
-      <c r="AFW1" s="18"/>
-      <c r="AFX1" s="18"/>
-      <c r="AFY1" s="18"/>
-      <c r="AFZ1" s="18"/>
-      <c r="AGA1" s="18"/>
-      <c r="AGB1" s="18"/>
-      <c r="AGC1" s="18"/>
-      <c r="AGD1" s="18"/>
-      <c r="AGE1" s="18"/>
-      <c r="AGF1" s="18"/>
-      <c r="AGG1" s="18"/>
-      <c r="AGH1" s="18"/>
-      <c r="AGI1" s="18"/>
-      <c r="AGJ1" s="18"/>
-      <c r="AGK1" s="18"/>
-      <c r="AGL1" s="18"/>
-      <c r="AGM1" s="18"/>
-      <c r="AGN1" s="18"/>
-      <c r="AGO1" s="18"/>
-      <c r="AGP1" s="18"/>
-      <c r="AGQ1" s="18"/>
-      <c r="AGR1" s="18"/>
-      <c r="AGS1" s="18"/>
-      <c r="AGT1" s="18"/>
-      <c r="AGU1" s="18"/>
-      <c r="AGV1" s="18"/>
-      <c r="AGW1" s="18"/>
-      <c r="AGX1" s="18"/>
-      <c r="AGY1" s="18"/>
-      <c r="AGZ1" s="18"/>
-      <c r="AHA1" s="18"/>
-      <c r="AHB1" s="18"/>
-      <c r="AHC1" s="18"/>
-      <c r="AHD1" s="18"/>
-      <c r="AHE1" s="18"/>
-      <c r="AHF1" s="18"/>
-      <c r="AHG1" s="18"/>
-      <c r="AHH1" s="18"/>
-      <c r="AHI1" s="18"/>
-      <c r="AHJ1" s="18"/>
-      <c r="AHK1" s="18"/>
-      <c r="AHL1" s="18"/>
-      <c r="AHM1" s="18"/>
-      <c r="AHN1" s="18"/>
-      <c r="AHO1" s="18"/>
-      <c r="AHP1" s="18"/>
-      <c r="AHQ1" s="18"/>
-      <c r="AHR1" s="18"/>
-      <c r="AHS1" s="18"/>
-      <c r="AHT1" s="18"/>
-      <c r="AHU1" s="18"/>
-      <c r="AHV1" s="18"/>
-      <c r="AHW1" s="18"/>
-      <c r="AHX1" s="18"/>
-      <c r="AHY1" s="18"/>
-      <c r="AHZ1" s="18"/>
-      <c r="AIA1" s="18"/>
-      <c r="AIB1" s="18"/>
-      <c r="AIC1" s="18"/>
-      <c r="AID1" s="18"/>
-      <c r="AIE1" s="18"/>
-      <c r="AIF1" s="18"/>
-      <c r="AIG1" s="18"/>
-      <c r="AIH1" s="18"/>
-      <c r="AII1" s="18"/>
-      <c r="AIJ1" s="18"/>
-      <c r="AIK1" s="18"/>
-      <c r="AIL1" s="18"/>
-      <c r="AIM1" s="18"/>
-      <c r="AIN1" s="18"/>
-      <c r="AIO1" s="18"/>
-      <c r="AIP1" s="18"/>
-      <c r="AIQ1" s="18"/>
-      <c r="AIR1" s="18"/>
-      <c r="AIS1" s="18"/>
-      <c r="AIT1" s="18"/>
-      <c r="AIU1" s="18"/>
-      <c r="AIV1" s="18"/>
-      <c r="AIW1" s="18"/>
-      <c r="AIX1" s="18"/>
-      <c r="AIY1" s="18"/>
-      <c r="AIZ1" s="18"/>
-      <c r="AJA1" s="18"/>
-      <c r="AJB1" s="18"/>
-      <c r="AJC1" s="18"/>
-      <c r="AJD1" s="18"/>
-      <c r="AJE1" s="18"/>
-      <c r="AJF1" s="18"/>
-      <c r="AJG1" s="18"/>
-      <c r="AJH1" s="18"/>
-      <c r="AJI1" s="18"/>
-      <c r="AJJ1" s="18"/>
-      <c r="AJK1" s="18"/>
-      <c r="AJL1" s="18"/>
-      <c r="AJM1" s="18"/>
-      <c r="AJN1" s="18"/>
-      <c r="AJO1" s="18"/>
-      <c r="AJP1" s="18"/>
-      <c r="AJQ1" s="18"/>
-      <c r="AJR1" s="18"/>
-      <c r="AJS1" s="18"/>
-      <c r="AJT1" s="18"/>
-      <c r="AJU1" s="18"/>
-      <c r="AJV1" s="18"/>
-      <c r="AJW1" s="18"/>
-      <c r="AJX1" s="18"/>
-      <c r="AJY1" s="18"/>
-      <c r="AJZ1" s="18"/>
-      <c r="AKA1" s="18"/>
-      <c r="AKB1" s="18"/>
-      <c r="AKC1" s="18"/>
-      <c r="AKD1" s="18"/>
-      <c r="AKE1" s="18"/>
-      <c r="AKF1" s="18"/>
-      <c r="AKG1" s="18"/>
-      <c r="AKH1" s="18"/>
-      <c r="AKI1" s="18"/>
-      <c r="AKJ1" s="18"/>
-      <c r="AKK1" s="18"/>
-      <c r="AKL1" s="18"/>
-      <c r="AKM1" s="18"/>
-      <c r="AKN1" s="18"/>
-      <c r="AKO1" s="18"/>
-      <c r="AKP1" s="18"/>
-      <c r="AKQ1" s="18"/>
-      <c r="AKR1" s="18"/>
-      <c r="AKS1" s="18"/>
-      <c r="AKT1" s="18"/>
-      <c r="AKU1" s="18"/>
-      <c r="AKV1" s="18"/>
-      <c r="AKW1" s="18"/>
-      <c r="AKX1" s="18"/>
-      <c r="AKY1" s="18"/>
-      <c r="AKZ1" s="18"/>
-      <c r="ALA1" s="18"/>
-      <c r="ALB1" s="18"/>
-      <c r="ALC1" s="18"/>
-      <c r="ALD1" s="18"/>
-      <c r="ALE1" s="18"/>
-      <c r="ALF1" s="18"/>
-      <c r="ALG1" s="18"/>
-      <c r="ALH1" s="18"/>
-      <c r="ALI1" s="18"/>
-      <c r="ALJ1" s="18"/>
-      <c r="ALK1" s="18"/>
-      <c r="ALL1" s="18"/>
-      <c r="ALM1" s="18"/>
-      <c r="ALN1" s="18"/>
-      <c r="ALO1" s="18"/>
-      <c r="ALP1" s="18"/>
-      <c r="ALQ1" s="18"/>
-      <c r="ALR1" s="18"/>
-      <c r="ALS1" s="18"/>
-      <c r="ALT1" s="18"/>
-      <c r="ALU1" s="18"/>
-      <c r="ALV1" s="18"/>
-      <c r="ALW1" s="18"/>
-      <c r="ALX1" s="18"/>
-      <c r="ALY1" s="18"/>
-      <c r="ALZ1" s="18"/>
-      <c r="AMA1" s="18"/>
-      <c r="AMB1" s="18"/>
-      <c r="AMC1" s="18"/>
-      <c r="AMD1" s="18"/>
-      <c r="AME1" s="18"/>
-      <c r="AMF1" s="18"/>
-      <c r="AMG1" s="18"/>
-      <c r="AMH1" s="18"/>
-      <c r="AMI1" s="18"/>
-      <c r="AMJ1" s="18"/>
-      <c r="AMK1" s="18"/>
-      <c r="AML1" s="18"/>
-      <c r="AMM1" s="18"/>
-      <c r="AMN1" s="18"/>
-      <c r="AMO1" s="18"/>
-      <c r="AMP1" s="18"/>
-      <c r="AMQ1"/>
-      <c r="AMR1"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="17"/>
+      <c r="SK1" s="17"/>
+      <c r="SL1" s="17"/>
+      <c r="SM1" s="17"/>
+      <c r="SN1" s="17"/>
+      <c r="SO1" s="17"/>
+      <c r="SP1" s="17"/>
+      <c r="SQ1" s="17"/>
+      <c r="SR1" s="17"/>
+      <c r="SS1" s="17"/>
+      <c r="ST1" s="17"/>
+      <c r="SU1" s="17"/>
+      <c r="SV1" s="17"/>
+      <c r="SW1" s="17"/>
+      <c r="SX1" s="17"/>
+      <c r="SY1" s="17"/>
+      <c r="SZ1" s="17"/>
+      <c r="TA1" s="17"/>
+      <c r="TB1" s="17"/>
+      <c r="TC1" s="17"/>
+      <c r="TD1" s="17"/>
+      <c r="TE1" s="17"/>
+      <c r="TF1" s="17"/>
+      <c r="TG1" s="17"/>
+      <c r="TH1" s="17"/>
+      <c r="TI1" s="17"/>
+      <c r="TJ1" s="17"/>
+      <c r="TK1" s="17"/>
+      <c r="TL1" s="17"/>
+      <c r="TM1" s="17"/>
+      <c r="TN1" s="17"/>
+      <c r="TO1" s="17"/>
+      <c r="TP1" s="17"/>
+      <c r="TQ1" s="17"/>
+      <c r="TR1" s="17"/>
+      <c r="TS1" s="17"/>
+      <c r="TT1" s="17"/>
+      <c r="TU1" s="17"/>
+      <c r="TV1" s="17"/>
+      <c r="TW1" s="17"/>
+      <c r="TX1" s="17"/>
+      <c r="TY1" s="17"/>
+      <c r="TZ1" s="17"/>
+      <c r="UA1" s="17"/>
+      <c r="UB1" s="17"/>
+      <c r="UC1" s="17"/>
+      <c r="UD1" s="17"/>
+      <c r="UE1" s="17"/>
+      <c r="UF1" s="17"/>
+      <c r="UG1" s="17"/>
+      <c r="UH1" s="17"/>
+      <c r="UI1" s="17"/>
+      <c r="UJ1" s="17"/>
+      <c r="UK1" s="17"/>
+      <c r="UL1" s="17"/>
+      <c r="UM1" s="17"/>
+      <c r="UN1" s="17"/>
+      <c r="UO1" s="17"/>
+      <c r="UP1" s="17"/>
+      <c r="UQ1" s="17"/>
+      <c r="UR1" s="17"/>
+      <c r="US1" s="17"/>
+      <c r="UT1" s="17"/>
+      <c r="UU1" s="17"/>
+      <c r="UV1" s="17"/>
+      <c r="UW1" s="17"/>
+      <c r="UX1" s="17"/>
+      <c r="UY1" s="17"/>
+      <c r="UZ1" s="17"/>
+      <c r="VA1" s="17"/>
+      <c r="VB1" s="17"/>
+      <c r="VC1" s="17"/>
+      <c r="VD1" s="17"/>
+      <c r="VE1" s="17"/>
+      <c r="VF1" s="17"/>
+      <c r="VG1" s="17"/>
+      <c r="VH1" s="17"/>
+      <c r="VI1" s="17"/>
+      <c r="VJ1" s="17"/>
+      <c r="VK1" s="17"/>
+      <c r="VL1" s="17"/>
+      <c r="VM1" s="17"/>
+      <c r="VN1" s="17"/>
+      <c r="VO1" s="17"/>
+      <c r="VP1" s="17"/>
+      <c r="VQ1" s="17"/>
+      <c r="VR1" s="17"/>
+      <c r="VS1" s="17"/>
+      <c r="VT1" s="17"/>
+      <c r="VU1" s="17"/>
+      <c r="VV1" s="17"/>
+      <c r="VW1" s="17"/>
+      <c r="VX1" s="17"/>
+      <c r="VY1" s="17"/>
+      <c r="VZ1" s="17"/>
+      <c r="WA1" s="17"/>
+      <c r="WB1" s="17"/>
+      <c r="WC1" s="17"/>
+      <c r="WD1" s="17"/>
+      <c r="WE1" s="17"/>
+      <c r="WF1" s="17"/>
+      <c r="WG1" s="17"/>
+      <c r="WH1" s="17"/>
+      <c r="WI1" s="17"/>
+      <c r="WJ1" s="17"/>
+      <c r="WK1" s="17"/>
+      <c r="WL1" s="17"/>
+      <c r="WM1" s="17"/>
+      <c r="WN1" s="17"/>
+      <c r="WO1" s="17"/>
+      <c r="WP1" s="17"/>
+      <c r="WQ1" s="17"/>
+      <c r="WR1" s="17"/>
+      <c r="WS1" s="17"/>
+      <c r="WT1" s="17"/>
+      <c r="WU1" s="17"/>
+      <c r="WV1" s="17"/>
+      <c r="WW1" s="17"/>
+      <c r="WX1" s="17"/>
+      <c r="WY1" s="17"/>
+      <c r="WZ1" s="17"/>
+      <c r="XA1" s="17"/>
+      <c r="XB1" s="17"/>
+      <c r="XC1" s="17"/>
+      <c r="XD1" s="17"/>
+      <c r="XE1" s="17"/>
+      <c r="XF1" s="17"/>
+      <c r="XG1" s="17"/>
+      <c r="XH1" s="17"/>
+      <c r="XI1" s="17"/>
+      <c r="XJ1" s="17"/>
+      <c r="XK1" s="17"/>
+      <c r="XL1" s="17"/>
+      <c r="XM1" s="17"/>
+      <c r="XN1" s="17"/>
+      <c r="XO1" s="17"/>
+      <c r="XP1" s="17"/>
+      <c r="XQ1" s="17"/>
+      <c r="XR1" s="17"/>
+      <c r="XS1" s="17"/>
+      <c r="XT1" s="17"/>
+      <c r="XU1" s="17"/>
+      <c r="XV1" s="17"/>
+      <c r="XW1" s="17"/>
+      <c r="XX1" s="17"/>
+      <c r="XY1" s="17"/>
+      <c r="XZ1" s="17"/>
+      <c r="YA1" s="17"/>
+      <c r="YB1" s="17"/>
+      <c r="YC1" s="17"/>
+      <c r="YD1" s="17"/>
+      <c r="YE1" s="17"/>
+      <c r="YF1" s="17"/>
+      <c r="YG1" s="17"/>
+      <c r="YH1" s="17"/>
+      <c r="YI1" s="17"/>
+      <c r="YJ1" s="17"/>
+      <c r="YK1" s="17"/>
+      <c r="YL1" s="17"/>
+      <c r="YM1" s="17"/>
+      <c r="YN1" s="17"/>
+      <c r="YO1" s="17"/>
+      <c r="YP1" s="17"/>
+      <c r="YQ1" s="17"/>
+      <c r="YR1" s="17"/>
+      <c r="YS1" s="17"/>
+      <c r="YT1" s="17"/>
+      <c r="YU1" s="17"/>
+      <c r="YV1" s="17"/>
+      <c r="YW1" s="17"/>
+      <c r="YX1" s="17"/>
+      <c r="YY1" s="17"/>
+      <c r="YZ1" s="17"/>
+      <c r="ZA1" s="17"/>
+      <c r="ZB1" s="17"/>
+      <c r="ZC1" s="17"/>
+      <c r="ZD1" s="17"/>
+      <c r="ZE1" s="17"/>
+      <c r="ZF1" s="17"/>
+      <c r="ZG1" s="17"/>
+      <c r="ZH1" s="17"/>
+      <c r="ZI1" s="17"/>
+      <c r="ZJ1" s="17"/>
+      <c r="ZK1" s="17"/>
+      <c r="ZL1" s="17"/>
+      <c r="ZM1" s="17"/>
+      <c r="ZN1" s="17"/>
+      <c r="ZO1" s="17"/>
+      <c r="ZP1" s="17"/>
+      <c r="ZQ1" s="17"/>
+      <c r="ZR1" s="17"/>
+      <c r="ZS1" s="17"/>
+      <c r="ZT1" s="17"/>
+      <c r="ZU1" s="17"/>
+      <c r="ZV1" s="17"/>
+      <c r="ZW1" s="17"/>
+      <c r="ZX1" s="17"/>
+      <c r="ZY1" s="17"/>
+      <c r="ZZ1" s="17"/>
+      <c r="AAA1" s="17"/>
+      <c r="AAB1" s="17"/>
+      <c r="AAC1" s="17"/>
+      <c r="AAD1" s="17"/>
+      <c r="AAE1" s="17"/>
+      <c r="AAF1" s="17"/>
+      <c r="AAG1" s="17"/>
+      <c r="AAH1" s="17"/>
+      <c r="AAI1" s="17"/>
+      <c r="AAJ1" s="17"/>
+      <c r="AAK1" s="17"/>
+      <c r="AAL1" s="17"/>
+      <c r="AAM1" s="17"/>
+      <c r="AAN1" s="17"/>
+      <c r="AAO1" s="17"/>
+      <c r="AAP1" s="17"/>
+      <c r="AAQ1" s="17"/>
+      <c r="AAR1" s="17"/>
+      <c r="AAS1" s="17"/>
+      <c r="AAT1" s="17"/>
+      <c r="AAU1" s="17"/>
+      <c r="AAV1" s="17"/>
+      <c r="AAW1" s="17"/>
+      <c r="AAX1" s="17"/>
+      <c r="AAY1" s="17"/>
+      <c r="AAZ1" s="17"/>
+      <c r="ABA1" s="17"/>
+      <c r="ABB1" s="17"/>
+      <c r="ABC1" s="17"/>
+      <c r="ABD1" s="17"/>
+      <c r="ABE1" s="17"/>
+      <c r="ABF1" s="17"/>
+      <c r="ABG1" s="17"/>
+      <c r="ABH1" s="17"/>
+      <c r="ABI1" s="17"/>
+      <c r="ABJ1" s="17"/>
+      <c r="ABK1" s="17"/>
+      <c r="ABL1" s="17"/>
+      <c r="ABM1" s="17"/>
+      <c r="ABN1" s="17"/>
+      <c r="ABO1" s="17"/>
+      <c r="ABP1" s="17"/>
+      <c r="ABQ1" s="17"/>
+      <c r="ABR1" s="17"/>
+      <c r="ABS1" s="17"/>
+      <c r="ABT1" s="17"/>
+      <c r="ABU1" s="17"/>
+      <c r="ABV1" s="17"/>
+      <c r="ABW1" s="17"/>
+      <c r="ABX1" s="17"/>
+      <c r="ABY1" s="17"/>
+      <c r="ABZ1" s="17"/>
+      <c r="ACA1" s="17"/>
+      <c r="ACB1" s="17"/>
+      <c r="ACC1" s="17"/>
+      <c r="ACD1" s="17"/>
+      <c r="ACE1" s="17"/>
+      <c r="ACF1" s="17"/>
+      <c r="ACG1" s="17"/>
+      <c r="ACH1" s="17"/>
+      <c r="ACI1" s="17"/>
+      <c r="ACJ1" s="17"/>
+      <c r="ACK1" s="17"/>
+      <c r="ACL1" s="17"/>
+      <c r="ACM1" s="17"/>
+      <c r="ACN1" s="17"/>
+      <c r="ACO1" s="17"/>
+      <c r="ACP1" s="17"/>
+      <c r="ACQ1" s="17"/>
+      <c r="ACR1" s="17"/>
+      <c r="ACS1" s="17"/>
+      <c r="ACT1" s="17"/>
+      <c r="ACU1" s="17"/>
+      <c r="ACV1" s="17"/>
+      <c r="ACW1" s="17"/>
+      <c r="ACX1" s="17"/>
+      <c r="ACY1" s="17"/>
+      <c r="ACZ1" s="17"/>
+      <c r="ADA1" s="17"/>
+      <c r="ADB1" s="17"/>
+      <c r="ADC1" s="17"/>
+      <c r="ADD1" s="17"/>
+      <c r="ADE1" s="17"/>
+      <c r="ADF1" s="17"/>
+      <c r="ADG1" s="17"/>
+      <c r="ADH1" s="17"/>
+      <c r="ADI1" s="17"/>
+      <c r="ADJ1" s="17"/>
+      <c r="ADK1" s="17"/>
+      <c r="ADL1" s="17"/>
+      <c r="ADM1" s="17"/>
+      <c r="ADN1" s="17"/>
+      <c r="ADO1" s="17"/>
+      <c r="ADP1" s="17"/>
+      <c r="ADQ1" s="17"/>
+      <c r="ADR1" s="17"/>
+      <c r="ADS1" s="17"/>
+      <c r="ADT1" s="17"/>
+      <c r="ADU1" s="17"/>
+      <c r="ADV1" s="17"/>
+      <c r="ADW1" s="17"/>
+      <c r="ADX1" s="17"/>
+      <c r="ADY1" s="17"/>
+      <c r="ADZ1" s="17"/>
+      <c r="AEA1" s="17"/>
+      <c r="AEB1" s="17"/>
+      <c r="AEC1" s="17"/>
+      <c r="AED1" s="17"/>
+      <c r="AEE1" s="17"/>
+      <c r="AEF1" s="17"/>
+      <c r="AEG1" s="17"/>
+      <c r="AEH1" s="17"/>
+      <c r="AEI1" s="17"/>
+      <c r="AEJ1" s="17"/>
+      <c r="AEK1" s="17"/>
+      <c r="AEL1" s="17"/>
+      <c r="AEM1" s="17"/>
+      <c r="AEN1" s="17"/>
+      <c r="AEO1" s="17"/>
+      <c r="AEP1" s="17"/>
+      <c r="AEQ1" s="17"/>
+      <c r="AER1" s="17"/>
+      <c r="AES1" s="17"/>
+      <c r="AET1" s="17"/>
+      <c r="AEU1" s="17"/>
+      <c r="AEV1" s="17"/>
+      <c r="AEW1" s="17"/>
+      <c r="AEX1" s="17"/>
+      <c r="AEY1" s="17"/>
+      <c r="AEZ1" s="17"/>
+      <c r="AFA1" s="17"/>
+      <c r="AFB1" s="17"/>
+      <c r="AFC1" s="17"/>
+      <c r="AFD1" s="17"/>
+      <c r="AFE1" s="17"/>
+      <c r="AFF1" s="17"/>
+      <c r="AFG1" s="17"/>
+      <c r="AFH1" s="17"/>
+      <c r="AFI1" s="17"/>
+      <c r="AFJ1" s="17"/>
+      <c r="AFK1" s="17"/>
+      <c r="AFL1" s="17"/>
+      <c r="AFM1" s="17"/>
+      <c r="AFN1" s="17"/>
+      <c r="AFO1" s="17"/>
+      <c r="AFP1" s="17"/>
+      <c r="AFQ1" s="17"/>
+      <c r="AFR1" s="17"/>
+      <c r="AFS1" s="17"/>
+      <c r="AFT1" s="17"/>
+      <c r="AFU1" s="17"/>
+      <c r="AFV1" s="17"/>
+      <c r="AFW1" s="17"/>
+      <c r="AFX1" s="17"/>
+      <c r="AFY1" s="17"/>
+      <c r="AFZ1" s="17"/>
+      <c r="AGA1" s="17"/>
+      <c r="AGB1" s="17"/>
+      <c r="AGC1" s="17"/>
+      <c r="AGD1" s="17"/>
+      <c r="AGE1" s="17"/>
+      <c r="AGF1" s="17"/>
+      <c r="AGG1" s="17"/>
+      <c r="AGH1" s="17"/>
+      <c r="AGI1" s="17"/>
+      <c r="AGJ1" s="17"/>
+      <c r="AGK1" s="17"/>
+      <c r="AGL1" s="17"/>
+      <c r="AGM1" s="17"/>
+      <c r="AGN1" s="17"/>
+      <c r="AGO1" s="17"/>
+      <c r="AGP1" s="17"/>
+      <c r="AGQ1" s="17"/>
+      <c r="AGR1" s="17"/>
+      <c r="AGS1" s="17"/>
+      <c r="AGT1" s="17"/>
+      <c r="AGU1" s="17"/>
+      <c r="AGV1" s="17"/>
+      <c r="AGW1" s="17"/>
+      <c r="AGX1" s="17"/>
+      <c r="AGY1" s="17"/>
+      <c r="AGZ1" s="17"/>
+      <c r="AHA1" s="17"/>
+      <c r="AHB1" s="17"/>
+      <c r="AHC1" s="17"/>
+      <c r="AHD1" s="17"/>
+      <c r="AHE1" s="17"/>
+      <c r="AHF1" s="17"/>
+      <c r="AHG1" s="17"/>
+      <c r="AHH1" s="17"/>
+      <c r="AHI1" s="17"/>
+      <c r="AHJ1" s="17"/>
+      <c r="AHK1" s="17"/>
+      <c r="AHL1" s="17"/>
+      <c r="AHM1" s="17"/>
+      <c r="AHN1" s="17"/>
+      <c r="AHO1" s="17"/>
+      <c r="AHP1" s="17"/>
+      <c r="AHQ1" s="17"/>
+      <c r="AHR1" s="17"/>
+      <c r="AHS1" s="17"/>
+      <c r="AHT1" s="17"/>
+      <c r="AHU1" s="17"/>
+      <c r="AHV1" s="17"/>
+      <c r="AHW1" s="17"/>
+      <c r="AHX1" s="17"/>
+      <c r="AHY1" s="17"/>
+      <c r="AHZ1" s="17"/>
+      <c r="AIA1" s="17"/>
+      <c r="AIB1" s="17"/>
+      <c r="AIC1" s="17"/>
+      <c r="AID1" s="17"/>
+      <c r="AIE1" s="17"/>
+      <c r="AIF1" s="17"/>
+      <c r="AIG1" s="17"/>
+      <c r="AIH1" s="17"/>
+      <c r="AII1" s="17"/>
+      <c r="AIJ1" s="17"/>
+      <c r="AIK1" s="17"/>
+      <c r="AIL1" s="17"/>
+      <c r="AIM1" s="17"/>
+      <c r="AIN1" s="17"/>
+      <c r="AIO1" s="17"/>
+      <c r="AIP1" s="17"/>
+      <c r="AIQ1" s="17"/>
+      <c r="AIR1" s="17"/>
+      <c r="AIS1" s="17"/>
+      <c r="AIT1" s="17"/>
+      <c r="AIU1" s="17"/>
+      <c r="AIV1" s="17"/>
+      <c r="AIW1" s="17"/>
+      <c r="AIX1" s="17"/>
+      <c r="AIY1" s="17"/>
+      <c r="AIZ1" s="17"/>
+      <c r="AJA1" s="17"/>
+      <c r="AJB1" s="17"/>
+      <c r="AJC1" s="17"/>
+      <c r="AJD1" s="17"/>
+      <c r="AJE1" s="17"/>
+      <c r="AJF1" s="17"/>
+      <c r="AJG1" s="17"/>
+      <c r="AJH1" s="17"/>
+      <c r="AJI1" s="17"/>
+      <c r="AJJ1" s="17"/>
+      <c r="AJK1" s="17"/>
+      <c r="AJL1" s="17"/>
+      <c r="AJM1" s="17"/>
+      <c r="AJN1" s="17"/>
+      <c r="AJO1" s="17"/>
+      <c r="AJP1" s="17"/>
+      <c r="AJQ1" s="17"/>
+      <c r="AJR1" s="17"/>
+      <c r="AJS1" s="17"/>
+      <c r="AJT1" s="17"/>
+      <c r="AJU1" s="17"/>
+      <c r="AJV1" s="17"/>
+      <c r="AJW1" s="17"/>
+      <c r="AJX1" s="17"/>
+      <c r="AJY1" s="17"/>
+      <c r="AJZ1" s="17"/>
+      <c r="AKA1" s="17"/>
+      <c r="AKB1" s="17"/>
+      <c r="AKC1" s="17"/>
+      <c r="AKD1" s="17"/>
+      <c r="AKE1" s="17"/>
+      <c r="AKF1" s="17"/>
+      <c r="AKG1" s="17"/>
+      <c r="AKH1" s="17"/>
+      <c r="AKI1" s="17"/>
+      <c r="AKJ1" s="17"/>
+      <c r="AKK1" s="17"/>
+      <c r="AKL1" s="17"/>
+      <c r="AKM1" s="17"/>
+      <c r="AKN1" s="17"/>
+      <c r="AKO1" s="17"/>
+      <c r="AKP1" s="17"/>
+      <c r="AKQ1" s="17"/>
+      <c r="AKR1" s="17"/>
+      <c r="AKS1" s="17"/>
+      <c r="AKT1" s="17"/>
+      <c r="AKU1" s="17"/>
+      <c r="AKV1" s="17"/>
+      <c r="AKW1" s="17"/>
+      <c r="AKX1" s="17"/>
+      <c r="AKY1" s="17"/>
+      <c r="AKZ1" s="17"/>
+      <c r="ALA1" s="17"/>
+      <c r="ALB1" s="17"/>
+      <c r="ALC1" s="17"/>
+      <c r="ALD1" s="17"/>
+      <c r="ALE1" s="17"/>
+      <c r="ALF1" s="17"/>
+      <c r="ALG1" s="17"/>
+      <c r="ALH1" s="17"/>
+      <c r="ALI1" s="17"/>
+      <c r="ALJ1" s="17"/>
+      <c r="ALK1" s="17"/>
+      <c r="ALL1" s="17"/>
+      <c r="ALM1" s="17"/>
+      <c r="ALN1" s="17"/>
+      <c r="ALO1" s="17"/>
+      <c r="ALP1" s="17"/>
+      <c r="ALQ1" s="17"/>
+      <c r="ALR1" s="17"/>
+      <c r="ALS1" s="17"/>
+      <c r="ALT1" s="17"/>
+      <c r="ALU1" s="17"/>
+      <c r="ALV1" s="17"/>
+      <c r="ALW1" s="17"/>
+      <c r="ALX1" s="17"/>
+      <c r="ALY1" s="17"/>
+      <c r="ALZ1" s="17"/>
+      <c r="AMA1" s="17"/>
+      <c r="AMB1" s="17"/>
+      <c r="AMC1" s="17"/>
+      <c r="AMD1" s="17"/>
+      <c r="AME1" s="17"/>
+      <c r="AMF1" s="17"/>
+      <c r="AMG1" s="17"/>
+      <c r="AMH1" s="17"/>
+      <c r="AMI1" s="17"/>
+      <c r="AMJ1" s="17"/>
+      <c r="AMK1" s="17"/>
+      <c r="AML1" s="17"/>
+      <c r="AMM1" s="17"/>
+      <c r="AMN1" s="17"/>
+      <c r="AMO1" s="17"/>
+      <c r="AMP1" s="17"/>
+      <c r="AMQ1" s="17"/>
+      <c r="AMR1" s="17"/>
       <c r="AMS1"/>
       <c r="AMT1"/>
       <c r="AMU1"/>
@@ -20498,8 +20479,8 @@
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="18" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="27" t="s">
+    <row r="2" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20536,28 +20517,32 @@
         <v>72</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMQ2"/>
-      <c r="AMR2"/>
       <c r="AMS2"/>
       <c r="AMT2"/>
       <c r="AMU2"/>
@@ -35911,30 +35896,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="17" t="s">
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -35943,43 +35928,49 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="17" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="9">
         <v>1e-12</v>
@@ -35988,19 +35979,25 @@
         <v>1e-13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -36009,7 +36006,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -36032,14 +36029,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="17"/>
-    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
-    <col min="5" max="10" width="8.78333333333333" style="17"/>
-    <col min="11" max="1026" width="8.78333333333333" style="25"/>
-    <col min="1027" max="16384" width="9" style="25"/>
+    <col min="1" max="3" width="8.78333333333333" style="16"/>
+    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="16"/>
+    <col min="11" max="1026" width="8.78333333333333" style="24"/>
+    <col min="1027" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="17" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -36047,19 +36044,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36076,136 +36073,136 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMK1" s="25"/>
+      <c r="AMK1" s="24"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="D7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>6</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="8:8">
@@ -36218,7 +36215,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="8:8">
-      <c r="H12" s="19"/>
+      <c r="H12" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -36258,10 +36255,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>71</v>
@@ -36284,114 +36281,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -36468,104 +36465,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.000148</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.000148</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="24">
+        <v>80</v>
+      </c>
+      <c r="E3" s="23">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>126</v>
+      <c r="G3" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="24">
+        <v>80</v>
+      </c>
+      <c r="E4" s="23">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>126</v>
+      <c r="G4" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="24">
+        <v>80</v>
+      </c>
+      <c r="E5" s="23">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>126</v>
+      <c r="G5" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="24">
+        <v>80</v>
+      </c>
+      <c r="E6" s="23">
         <v>0.001</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>126</v>
+      <c r="G6" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="24">
+        <v>80</v>
+      </c>
+      <c r="E7" s="23">
         <v>0.002</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>126</v>
+      <c r="G7" s="23" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
@@ -43,9 +43,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="239">
   <si>
     <t>Table</t>
   </si>
@@ -333,6 +333,15 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
     <t>Empirical formula</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
     <t>specie_name_1</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>pseudo_species</t>
   </si>
   <si>
@@ -363,16 +369,10 @@
     <t>specie_name_2</t>
   </si>
   <si>
-    <t>NONa2</t>
-  </si>
-  <si>
     <t>specie_3</t>
   </si>
   <si>
     <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
   </si>
   <si>
     <t>specie_4</t>
@@ -381,25 +381,16 @@
     <t>specie_name_4</t>
   </si>
   <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
     <t>specie_5</t>
   </si>
   <si>
     <t>specie_name_5</t>
   </si>
   <si>
-    <t>Na5</t>
-  </si>
-  <si>
     <t>specie_6</t>
   </si>
   <si>
     <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
   </si>
   <si>
     <t>Species type</t>
@@ -600,9 +591,6 @@
     <t>dFBA objective reaction</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
   </si>
   <si>
@@ -797,12 +785,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -851,15 +839,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,8 +852,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -879,30 +868,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -918,7 +884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,9 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,14 +914,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,8 +927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,15 +944,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,7 +1001,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,37 +1169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,115 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,11 +1204,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,50 +1267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,139 +1281,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,14 +1507,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2216,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -2273,7 +2261,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
@@ -2296,10 +2284,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -2307,10 +2295,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>81</v>
@@ -2353,7 +2341,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2371,22 +2359,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>71</v>
@@ -2409,22 +2397,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="20">
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2433,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -2463,22 +2451,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2487,22 +2475,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E6" s="20">
         <v>0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2557,16 +2545,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
@@ -2589,19 +2577,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2610,19 +2598,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2631,19 +2619,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2652,19 +2640,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2674,19 +2662,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2712,7 +2700,7 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2733,19 +2721,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2765,20 +2753,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -2818,13 +2806,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2844,22 +2832,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2897,13 +2885,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>71</v>
@@ -2926,85 +2914,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="14">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="14">
         <v>-4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="14">
         <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3044,13 +3032,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>71</v>
@@ -3073,10 +3061,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3085,91 +3073,91 @@
         <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3180,7 +3168,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3191,18 +3179,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3230,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
@@ -3290,7 +3278,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -3302,11 +3290,11 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T1" s="7"/>
     </row>
@@ -3318,22 +3306,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3345,19 +3333,19 @@
         <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3534,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -3546,16 +3534,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -3652,46 +3640,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3737,28 +3725,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3799,28 +3787,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3841,7 +3829,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4097,19 +4085,19 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
@@ -20480,7 +20468,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -36017,210 +36005,211 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMM13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="16"/>
-    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
-    <col min="5" max="10" width="8.78333333333333" style="16"/>
-    <col min="11" max="1026" width="8.78333333333333" style="24"/>
-    <col min="1027" max="16384" width="9" style="24"/>
+    <col min="4" max="5" width="16.125" style="16" customWidth="1"/>
+    <col min="6" max="12" width="8.78333333333333" style="16"/>
+    <col min="13" max="1028" width="8.78333333333333" style="24"/>
+    <col min="1029" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="3:8">
+      <c r="C1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" s="17" customFormat="1" customHeight="1" spans="1:1027">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMK1" s="24"/>
+      <c r="AMM2" s="24"/>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="16">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="H3" s="16">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="25"/>
+      <c r="I3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="26"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="25"/>
+      <c r="I5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="26"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="16">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="G6" s="24">
+        <v>4</v>
+      </c>
+      <c r="H6" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="25"/>
+      <c r="I6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="26"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="16" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="24">
-        <v>4</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="B7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="G7" s="24">
+        <v>5</v>
+      </c>
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="25"/>
+      <c r="I7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="26"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="24" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="24">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="G8" s="24">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="25"/>
+      <c r="I8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="24">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="10" customHeight="1" spans="10:10">
+      <c r="J10" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="1"/>
+    <row r="11" customHeight="1" spans="10:10">
+      <c r="J11" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="1"/>
+    <row r="12" customHeight="1" spans="10:10">
+      <c r="J12" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" customHeight="1" spans="8:8">
-      <c r="H12" s="18"/>
+    <row r="13" customHeight="1" spans="10:10">
+      <c r="J13" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7">
+  <autoFilter ref="A2:K8">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -36255,10 +36244,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>71</v>
@@ -36281,49 +36270,49 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
@@ -36332,63 +36321,63 @@
         <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -36465,10 +36454,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -36477,15 +36466,15 @@
         <v>0.000148</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -36494,15 +36483,15 @@
         <v>0.0002</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>80</v>
@@ -36511,15 +36500,15 @@
         <v>0.0005</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -36528,15 +36517,15 @@
         <v>0.0005</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -36545,15 +36534,15 @@
         <v>0.001</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -36562,7 +36551,7 @@
         <v>0.002</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="25" r:id="rId1"/>
@@ -26,19 +26,20 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId16"/>
     <sheet name="Parameters" sheetId="14" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="22" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="21" r:id="rId20"/>
-    <sheet name="References" sheetId="16" r:id="rId21"/>
-    <sheet name="Authors" sheetId="23" r:id="rId22"/>
-    <sheet name="Changes" sheetId="24" r:id="rId23"/>
+    <sheet name="Observations" sheetId="22" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="26" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="21" r:id="rId21"/>
+    <sheet name="References" sheetId="16" r:id="rId22"/>
+    <sheet name="Authors" sheetId="23" r:id="rId23"/>
+    <sheet name="Changes" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
@@ -52,16 +53,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="241">
   <si>
     <t>Table</t>
   </si>
@@ -123,10 +124,13 @@
     <t>Stop conditions</t>
   </si>
   <si>
-    <t>Evidence</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -223,6 +227,9 @@
   </si>
   <si>
     <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
   <si>
     <t>submodel_1</t>
@@ -669,10 +676,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
+    <t>Data generation process</t>
   </si>
   <si>
-    <t>Analysis method</t>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -693,7 +700,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -776,9 +786,6 @@
   <si>
     <t>Intention type</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
@@ -787,10 +794,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -853,37 +860,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -891,7 +867,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,51 +895,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -974,9 +920,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1001,7 +1008,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,19 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,49 +1128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,25 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,31 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,30 +1208,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1252,17 +1235,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,12 +1285,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1304,132 +1311,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1920,12 +1927,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -2113,7 +2120,7 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2122,7 +2129,7 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2131,7 +2138,7 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2143,9 +2150,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2166,11 +2182,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2198,31 +2214,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2255,53 +2271,53 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2357,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2353,66 +2369,66 @@
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="20">
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2421,28 +2437,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -2451,22 +2467,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2475,22 +2491,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E6" s="20">
         <v>0</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2539,57 +2555,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2598,19 +2614,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2619,19 +2635,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2640,19 +2656,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2662,19 +2678,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2715,61 +2731,61 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2800,54 +2816,54 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2879,120 +2895,120 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" s="14">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="14">
         <v>-4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" s="14">
         <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3026,171 +3042,171 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3224,31 +3240,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3261,14 +3277,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3278,7 +3294,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -3290,86 +3306,83 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3403,89 +3416,89 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="30"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="30"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="30"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="30"/>
     </row>
@@ -3502,14 +3515,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3522,49 +3593,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -3612,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -3634,58 +3708,58 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AMJ1" s="4"/>
     </row>
@@ -3699,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -3719,40 +3793,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -3781,55 +3855,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3857,44 +3931,44 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3925,20 +3999,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3946,25 +4020,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3995,28 +4069,28 @@
   <sheetData>
     <row r="1" s="17" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMI1" s="24"/>
       <c r="AMJ1" s="24"/>
@@ -4024,28 +4098,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="28"/>
       <c r="G2" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4086,14 +4160,14 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
       <c r="L1" s="17"/>
       <c r="M1" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
@@ -20469,67 +20543,67 @@
     </row>
     <row r="2" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMS2"/>
       <c r="AMT2"/>
@@ -35886,28 +35960,28 @@
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -35916,13 +35990,13 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -35931,34 +36005,34 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4" s="9">
         <v>1e-12</v>
@@ -35967,13 +36041,13 @@
         <v>1e-13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4" s="1">
         <v>7.75</v>
@@ -35982,10 +36056,10 @@
         <v>0.775</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -36007,7 +36081,7 @@
   <sheetPr/>
   <dimension ref="A1:AMM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36026,7 +36100,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -36036,55 +36110,55 @@
     </row>
     <row r="2" s="17" customFormat="1" customHeight="1" spans="1:1027">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMM2" s="24"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="24"/>
       <c r="G3" s="16">
@@ -36094,16 +36168,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J3" s="26"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="24"/>
       <c r="G4" s="16">
@@ -36113,16 +36187,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J4" s="26"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="24"/>
       <c r="G5" s="16">
@@ -36132,16 +36206,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="26"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="24"/>
       <c r="G6" s="24">
@@ -36151,16 +36225,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" s="26"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="24"/>
       <c r="G7" s="24">
@@ -36170,16 +36244,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" s="24">
         <v>6</v>
@@ -36188,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="10:10">
@@ -36238,146 +36312,146 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -36416,142 +36490,142 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="23">
         <v>0.000148</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="23">
         <v>0.0002</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="23">
         <v>0.0005</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="23">
         <v>0.0005</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="23">
         <v>0.001</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="23">
         <v>0.002</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
